--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -567,7 +567,7 @@
         <v>Belirli bir zamanda, belirli yaptırımların uygulanacağına dair belirsizlikle ilgili tehditler yapıldı. Bu yaptırımlar bir varlığı son derece rahatsız edecekti.</v>
       </c>
       <c r="D12" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="13">
@@ -581,7 +581,7 @@
         <v>Bir program, RedHat Enterprise sertifikalı değilse, ilgili Fermi Linux LTS sürümünde çalışabilir.</v>
       </c>
       <c r="D13" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="14">
@@ -609,7 +609,7 @@
         <v>Ev 1940'lı yıllarda tamamlandı.</v>
       </c>
       <c r="D15" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         <v>Makalede, arabadaki gazın çoğunu tüketmeniz gerektiği belirtiliyor.</v>
       </c>
       <c r="D17" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="18">
@@ -651,7 +651,7 @@
         <v>İki adam 20 yıl hapis cezasına çarptırıldı.</v>
       </c>
       <c r="D18" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="19">
@@ -665,7 +665,7 @@
         <v>Rakibinizin fazla alkol alıp almadığını bilmek faydalıdır.</v>
       </c>
       <c r="D19" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="20">
@@ -679,7 +679,7 @@
         <v>Michael Jackson öldü.</v>
       </c>
       <c r="D20" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="21">
@@ -693,7 +693,7 @@
         <v>Erken öğrenmeye yeterince önem verilmemiştir.</v>
       </c>
       <c r="D21" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="22">
@@ -707,7 +707,7 @@
         <v>Ulusal halk parkı durağında inin ve oradan ana girişe yürüyün.</v>
       </c>
       <c r="D22" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="23">
@@ -735,7 +735,7 @@
         <v>Reform, yazım kurallarını uyumlu hale getirmeyi amaçlıyordu.</v>
       </c>
       <c r="D24" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="25">
@@ -749,7 +749,7 @@
         <v>Hortumunuzun görünümü, nasıl hasar gördüğünü size söyleyecektir.</v>
       </c>
       <c r="D25" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="26">
@@ -763,7 +763,7 @@
         <v>İnsanlar soğuk bir odada uyumayı sever.</v>
       </c>
       <c r="D26" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="27">
@@ -777,7 +777,7 @@
         <v>Eğer Çarşamba günleri saat 12'de SportsCenter'ı izliyorsanız, Chris McKendry'nin kim olduğunu biliyor olabilirsiniz.</v>
       </c>
       <c r="D27" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="28">
@@ -819,7 +819,7 @@
         <v>Herkes, sadece iradeye sahip oldukları takdirde Afrika menekşeleri yetiştirebilir.</v>
       </c>
       <c r="D30" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="31">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -623,7 +623,7 @@
         <v>Bu bağlamda bahsedilen "onlar" tamamen davanın açan tarafıyla yan yana durmuştur.</v>
       </c>
       <c r="D16" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="17">
@@ -833,7 +833,7 @@
         <v>Sadece serin olduğunda uyu.</v>
       </c>
       <c r="D31" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="32">
@@ -847,7 +847,7 @@
         <v>Kalıcı barış sağlanacaktır.</v>
       </c>
       <c r="D32" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="33">
@@ -861,7 +861,7 @@
         <v>Yaz saati uygulaması pratiğinizi etkileyecek, bunu dikkate alın.</v>
       </c>
       <c r="D33" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="34">
@@ -875,7 +875,7 @@
         <v>Yetişkinler de DEHB (Dikkat Eksikliği Hiperaktivite Bozukluğu) olabilir.</v>
       </c>
       <c r="D34" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>Bill C-3, yargıçların örnek almasına izin veren bir muafiyet sağlamaktadır.</v>
       </c>
       <c r="D35" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="36">
@@ -903,7 +903,7 @@
         <v>Tütün ürünlerini kullanmayı bırakırsanız, akciğer kanseri olmazsınız.</v>
       </c>
       <c r="D36" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="37">
@@ -917,7 +917,7 @@
         <v>Çalışanlar yeminli beyanname vermekte isteksizdi.</v>
       </c>
       <c r="D37" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="38">
@@ -931,7 +931,7 @@
         <v>Dalai Lama barışsever bir liderdir.</v>
       </c>
       <c r="D38" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="39">
@@ -945,7 +945,7 @@
         <v>Jongno'nun bir otobüs filosu var.</v>
       </c>
       <c r="D39" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="40">
@@ -959,7 +959,7 @@
         <v>Bu kişi telif hakkı hukukunu çalışıyor.</v>
       </c>
       <c r="D40" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="41">
@@ -973,7 +973,7 @@
         <v>Vitamin E almayın.</v>
       </c>
       <c r="D41" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="42">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -987,7 +987,7 @@
         <v>Avrupa'da telif hakkı detayları değişiyor.</v>
       </c>
       <c r="D42" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="43">
@@ -1001,7 +1001,7 @@
         <v>Mixbin Elektronik, elektronik üretmektedir.</v>
       </c>
       <c r="D43" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="44">
@@ -1015,7 +1015,7 @@
         <v>Tıp, Amerika'da ilk başladığından bu yana büyük bir yol kat etti.</v>
       </c>
       <c r="D44" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="45">
@@ -1057,7 +1057,7 @@
         <v>Kalbiniz, vücudunuzun saatini kontrol eder.</v>
       </c>
       <c r="D47" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="48">
@@ -1071,7 +1071,7 @@
         <v>başka bir paragraf var</v>
       </c>
       <c r="D48" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="49">
@@ -1085,7 +1085,7 @@
         <v>Eğer sigara içmek anormal hücrelere neden oluyorsa, o zaman anormal hücreler kanserin tek sebebidir.</v>
       </c>
       <c r="D49" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="50">
@@ -1099,7 +1099,7 @@
         <v>Kuzey Kore yeni denetim kameraları kurdu.</v>
       </c>
       <c r="D50" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="51">
@@ -1113,7 +1113,7 @@
         <v>Rakip yalnızsa kazanabilirsin.</v>
       </c>
       <c r="D51" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="52">
@@ -1127,7 +1127,7 @@
         <v>Bir arabayı satmak, çölde su satmak gibidir.</v>
       </c>
       <c r="D52" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="53">
@@ -1141,7 +1141,7 @@
         <v>Buckingham genellikle toplantılarda konuşurdu.</v>
       </c>
       <c r="D53" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="54">
@@ -1155,7 +1155,7 @@
         <v>Bu tür fayanslar için silme işlemi gereklidir.</v>
       </c>
       <c r="D54" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="55">
@@ -1169,7 +1169,7 @@
         <v>Doktorlar, bir hastanın aşı geçmişini takip edecekler.</v>
       </c>
       <c r="D55" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="56">
@@ -1183,7 +1183,7 @@
         <v>Soru yanıtlanması zor.</v>
       </c>
       <c r="D56" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="57">
@@ -1197,7 +1197,7 @@
         <v>Telif hakları yasaları 200 yıldan fazla bir süredir var.</v>
       </c>
       <c r="D57" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="58">
@@ -1211,7 +1211,7 @@
         <v>Bu önemli mektup, Beth Eveland tarafından yapılan yorumlarla ilgilidir.</v>
       </c>
       <c r="D58" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="59">
@@ -1225,7 +1225,7 @@
         <v>Haloumi peyniri dışarıda yenildiğinde en iyisidir.</v>
       </c>
       <c r="D59" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="60">
@@ -1239,7 +1239,7 @@
         <v>Belçika çoğunlukla Flandre'ye aittir.</v>
       </c>
       <c r="D60" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="61">
@@ -1253,7 +1253,7 @@
         <v>Lyme hastalığı genetik bir hastalıktır.</v>
       </c>
       <c r="D61" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="62">
@@ -1267,7 +1267,7 @@
         <v>Avusturya bir filmdir.</v>
       </c>
       <c r="D62" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="63">
@@ -1281,7 +1281,7 @@
         <v>Rich Girl, bir Alman rapçi içeriyor.</v>
       </c>
       <c r="D63" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="64">
@@ -1295,7 +1295,7 @@
         <v>Louis Tomlinson bir ITV komedisinde yer aldı.</v>
       </c>
       <c r="D64" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="65">
@@ -1309,7 +1309,7 @@
         <v>Jennifer Garner bir filmdeydi.</v>
       </c>
       <c r="D65" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="66">
@@ -1323,7 +1323,7 @@
         <v>James Wilson gerçek bir kişi olup henüz kurgusal bir karakter haline getirilmemiştir.</v>
       </c>
       <c r="D66" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="67">
@@ -1337,7 +1337,7 @@
         <v>Bay Michael yargılanacak.</v>
       </c>
       <c r="D67" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="68">
@@ -1379,7 +1379,7 @@
         <v>Kanalı indirmek için ön koşul, Internet Explorer'ın kurulu olmasıdır.</v>
       </c>
       <c r="D70" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="71">
@@ -1393,7 +1393,7 @@
         <v>Belirli bir sayıda seçmen vardır.</v>
       </c>
       <c r="D71" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="72">
@@ -1407,7 +1407,7 @@
         <v>Seçenek ticareti yapanlar, Scholes ve Merton için ellerini birbirine vurarak alkışladılar.</v>
       </c>
       <c r="D72" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="73">
@@ -1421,7 +1421,7 @@
         <v>Eğer dünyanın McDonald'larına dikkat etmezsek, onlar kendi kendilerine kaybolup gidecekler.</v>
       </c>
       <c r="D73" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="74">
@@ -1435,7 +1435,7 @@
         <v>Yeni yatırım fonu paralarının %20'sinin endeksli fonlara gitmesi çok olumlu bir işaret.</v>
       </c>
       <c r="D74" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="75">
@@ -1449,7 +1449,7 @@
         <v>Andrew Baumgartner sıkıcı bir öğretmendir.</v>
       </c>
       <c r="D75" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="76">
@@ -1477,7 +1477,7 @@
         <v>Anket çevrimiçi olarak doldurulabilir.</v>
       </c>
       <c r="D77" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="78">
@@ -1491,7 +1491,7 @@
         <v>Pro-seçim medyası, iddialarını destekleyen istatistikleri kabul etmeye istekli, hatta bunlar yanlış olsa bile.</v>
       </c>
       <c r="D78" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="79">
@@ -1519,7 +1519,7 @@
         <v>Kennewick Adam, eğer kanıt varsa, rezervasyonu hakkında bir seçim yapmak zorundadır.</v>
       </c>
       <c r="D80" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="81">
@@ -1533,7 +1533,7 @@
         <v>Sıklıkla opsiyon borsa katında alkışlar duyulur.</v>
       </c>
       <c r="D81" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="82">
@@ -1547,7 +1547,7 @@
         <v>Görünüşe göre, Clinton üzüntü ve pişmanlığını ifade ederse Lewinsky ve Tripp iyi arkadaş olacaktı.</v>
       </c>
       <c r="D82" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="83">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -1561,7 +1561,7 @@
         <v>Bir kültürel iç savaş yaşanıyor.</v>
       </c>
       <c r="D83" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="84">
@@ -1575,7 +1575,7 @@
         <v>Böylece, onların bağlarını parçalayacak, onun söylediklerini ve ona çağırdıklarını gerçekten geçersiz kılacaksın.</v>
       </c>
       <c r="D84" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="85">
@@ -1589,7 +1589,7 @@
         <v>Reklam verenler, dergi ücretsiz olsaydı onu terk ederdi.</v>
       </c>
       <c r="D85" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="86">
@@ -1603,7 +1603,7 @@
         <v>Marjla alım yaparsa çok daha fazlasını kaybetme riski var.</v>
       </c>
       <c r="D86" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="87">
@@ -1617,7 +1617,7 @@
         <v>Sheen, ölüme giden bir yolda.</v>
       </c>
       <c r="D87" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="88">
@@ -1645,7 +1645,7 @@
         <v>Buraya tıklayarak Jon Robin Baitz'in tartışmaya dair görüşünü ve sansür konusundaki düşüncelerini okuyabilirsiniz.</v>
       </c>
       <c r="D89" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="90">
@@ -1673,7 +1673,7 @@
         <v>Landsburg, Amerika Birleşik Devletleri'ni eleştiriyor.</v>
       </c>
       <c r="D91" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="92">
@@ -1715,7 +1715,7 @@
         <v>Emeklilikten önce IRA hesabını kullanmak vergi avantajları sağlayabilir.</v>
       </c>
       <c r="D94" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="95">
@@ -1729,7 +1729,7 @@
         <v>Çıkışları için ince bir yaklaşım kabul edilebilir.</v>
       </c>
       <c r="D95" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="96">
@@ -1743,7 +1743,7 @@
         <v>New York City metrosunu kullanmış kongre üyeleri var.</v>
       </c>
       <c r="D96" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="97">
@@ -1757,7 +1757,7 @@
         <v>Isikoff'un gazeteciliği ona başkalarından nefret getirdi.</v>
       </c>
       <c r="D97" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="98">
@@ -1771,7 +1771,7 @@
         <v>Bill Gates faturalarını ödemekte zorlanıyor.</v>
       </c>
       <c r="D98" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="99">
@@ -1785,7 +1785,7 @@
         <v>Eleştirmenler tüm sosyal romanları küçümseyici bir tavır sergiliyor.</v>
       </c>
       <c r="D99" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="100">
@@ -1813,7 +1813,7 @@
         <v>Dallas Morning News'teki rapor, Clinton ile Lewinsky arasında meydana gelen olaya daha fazla ışık tutmaya yardımcı oldu.</v>
       </c>
       <c r="D101" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="102">
@@ -1827,7 +1827,7 @@
         <v>O, alternatifin azil olduğunu bildiği için onay verdi.</v>
       </c>
       <c r="D102" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="103">
@@ -1841,7 +1841,7 @@
         <v>George Bush Sr. ve George W. Bush ikisi de güneyden.</v>
       </c>
       <c r="D103" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="104">
@@ -1869,7 +1869,7 @@
         <v>Gebelik sonlandırma hoş değildir.</v>
       </c>
       <c r="D105" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="106">
@@ -1883,7 +1883,7 @@
         <v>Bazı insanlar hakimlerin dürüst olup olmadığını önemser.</v>
       </c>
       <c r="D106" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="107">
@@ -1897,7 +1897,7 @@
         <v>Parça doğum abortusları, D ve E'ler hepsi aynıdır.</v>
       </c>
       <c r="D107" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="108">
@@ -1925,7 +1925,7 @@
         <v>Başarısız olacak gibi görünüyordu.</v>
       </c>
       <c r="D109" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="110">
@@ -1953,7 +1953,7 @@
         <v>sebep cevabın içindedir.</v>
       </c>
       <c r="D111" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="112">
@@ -1995,7 +1995,7 @@
         <v>Kesinlikle onu alacaklardı.</v>
       </c>
       <c r="D114" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="115">
@@ -2009,7 +2009,7 @@
         <v>Wall Street ve Medya Tutkunları arasında birçok ortak nokta var.</v>
       </c>
       <c r="D115" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="116">
@@ -2023,7 +2023,7 @@
         <v>Sigorta şirketlerine dava açan hastaların olmaması, doğru yönde bir adım olurdu.</v>
       </c>
       <c r="D116" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="117">
@@ -2037,7 +2037,7 @@
         <v>Ciddi bir tehdit olmayı amaçlıyor.</v>
       </c>
       <c r="D117" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="118">
@@ -2065,7 +2065,7 @@
         <v>Hükümet ambargoları kontrol etmez.</v>
       </c>
       <c r="D119" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="120">
@@ -2079,7 +2079,7 @@
         <v>Eğer zaten sigorta kapsamında olan bir çocuğunuz varsa, program onu kapsamayacaktır.</v>
       </c>
       <c r="D120" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="121">
@@ -2093,7 +2093,7 @@
         <v>Kimse bunu kendi iradesiyle bir başyapıt olarak değerlendirmeyecek.</v>
       </c>
       <c r="D121" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="122">
@@ -2121,7 +2121,7 @@
         <v>Y-kesim noktaları, dikey eksende veri değişikliği olsa bile genel olarak değişmeden kalacaktır.</v>
       </c>
       <c r="D123" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="124">
@@ -2177,7 +2177,7 @@
         <v>Fransız metropol alanında bisiklet sürmek güvenli ve rahatlatıcıdır.</v>
       </c>
       <c r="D127" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="128">
@@ -2191,7 +2191,7 @@
         <v>Söylemek zor, istismarın daha sık mı gerçekleştiği yoksa sadece daha sık mı rapor edildiği.</v>
       </c>
       <c r="D128" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="129">
@@ -2205,7 +2205,7 @@
         <v>Bir stajyer maaş almaz.</v>
       </c>
       <c r="D129" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="130">
@@ -2219,7 +2219,7 @@
         <v>Eğer sana Happy Texas'ı seveceğini söylüyorsa, o iyi bir arkadaş değil, makalede yazdı.</v>
       </c>
       <c r="D130" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="131">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -2233,7 +2233,7 @@
         <v>Ara sıra canım istediğinde gideceğim.</v>
       </c>
       <c r="D131" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="132">
@@ -2247,7 +2247,7 @@
         <v>Parayı alsanız bile, kurallara uymak mümkün olabilir.</v>
       </c>
       <c r="D132" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="133">
@@ -2275,7 +2275,7 @@
         <v>Fred'in iyi olup olduğunu ilk başta söylemek zor.</v>
       </c>
       <c r="D134" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="135">
@@ -2289,7 +2289,7 @@
         <v>Görevli, eğer gravür yaptırmayı seçersem, bana %20 indirim vereceğini söyledi.</v>
       </c>
       <c r="D135" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="136">
@@ -2303,7 +2303,7 @@
         <v>Eğer grup "ole" diye bağırıyorsa, bu matadorun kötü gittiği anlamına gelir.</v>
       </c>
       <c r="D136" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="137">
@@ -2317,7 +2317,7 @@
         <v>Yerlilere yaptıklarımız, Custer'ı nazik gösteriyor.</v>
       </c>
       <c r="D137" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="138">
@@ -2345,7 +2345,7 @@
         <v>Bu sorun değil.</v>
       </c>
       <c r="D139" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="140">
@@ -2359,7 +2359,7 @@
         <v>Tamamlamadan önce yakalandım.</v>
       </c>
       <c r="D140" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="141">
@@ -2373,7 +2373,7 @@
         <v>Tüm bilgilere erişimi var ve hafif bir şekilde küçümsendiğinde hızlı bir şekilde harekete geçecektir.</v>
       </c>
       <c r="D141" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="142">
@@ -2387,7 +2387,7 @@
         <v>Mirasına saygı gösterirsek bunu çok severdi.</v>
       </c>
       <c r="D142" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="143">
@@ -2401,7 +2401,7 @@
         <v>Opera binasının arkasında, bulabilirseniz, en iyi bilinen iki mağaza var.</v>
       </c>
       <c r="D143" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="144">
@@ -2429,7 +2429,7 @@
         <v>Herkes üniversite için ebeveynlerinden yardım alır.</v>
       </c>
       <c r="D145" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="146">
@@ -2443,7 +2443,7 @@
         <v>Makaledeki bağlantılar, makalenin altındaki bağlantılardan farklı içeriklere sahiptir.</v>
       </c>
       <c r="D146" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="147">
@@ -2457,7 +2457,7 @@
         <v>Usta ayakkabıcı, asistanıyla profesyonel bir ilişki sürdürdü.</v>
       </c>
       <c r="D147" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="148">
@@ -2471,7 +2471,7 @@
         <v>Eğer şanslıysanız, bu olmayacak.</v>
       </c>
       <c r="D148" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="149">
@@ -2485,7 +2485,7 @@
         <v>Eğer dürüst olursam, bu her zaman parmaklarınızı kurtarmayacak.</v>
       </c>
       <c r="D149" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="150">
@@ -2499,7 +2499,7 @@
         <v>Sorunlar varsa LSC ile danışmanız gerekmez.</v>
       </c>
       <c r="D150" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="151">
@@ -2513,7 +2513,7 @@
         <v>Sonuçların önemli ölçüde farklı olmasını bekliyorum.</v>
       </c>
       <c r="D151" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="152">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -2527,7 +2527,7 @@
         <v>Eğer değişirsem, arkadaşlığımıza devam edecek miyiz?</v>
       </c>
       <c r="D152" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="153">
@@ -2541,7 +2541,7 @@
         <v>Özellikle Kaliforniyalı fotoğrafçılar hakkında soruldu.</v>
       </c>
       <c r="D153" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="154">
@@ -2555,7 +2555,7 @@
         <v>Her beş yılda veya her üç yılda bir yapılan kurulumlar iş gücü maliyetlerini etkiler.</v>
       </c>
       <c r="D154" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="155">
@@ -2583,7 +2583,7 @@
         <v>Birinin çamaşır makinesinden veya kurutucudan kıyafetlerini çıkarması için ne kadar süre beklemeliyim?</v>
       </c>
       <c r="D156" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="157">
@@ -2597,7 +2597,7 @@
         <v>Hakim, gürültü yapan kadınlara işaret etti ve derhal sessizlik talep etti.</v>
       </c>
       <c r="D157" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="158">
@@ -2625,7 +2625,7 @@
         <v>Büyükannesinin durumu şimdi çok kötü.</v>
       </c>
       <c r="D159" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="160">
@@ -2639,7 +2639,7 @@
         <v>Bu özel kartı gönderirseniz, ücretsiz bir kahve kazanırsınız.</v>
       </c>
       <c r="D160" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="161">
@@ -2667,7 +2667,7 @@
         <v>Uzun zaman önce olmasına rağmen, hala gerçekten önemli.</v>
       </c>
       <c r="D162" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="163">
@@ -2681,7 +2681,7 @@
         <v>Bazıları Clinton'ın mahkemeye çağrıldığında beşinci maddeden yararlanıp yararlanmayacağını merak ediyor.</v>
       </c>
       <c r="D163" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="164">
@@ -2695,7 +2695,7 @@
         <v>Victoria Peak Bahçelerine ulaşmak için bir yürüyüş yapmak gerekiyor.</v>
       </c>
       <c r="D164" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="165">
@@ -2709,7 +2709,7 @@
         <v>Yılı sonuna kadar kullanmazsan, gidecek.</v>
       </c>
       <c r="D165" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="166">
@@ -2723,7 +2723,7 @@
         <v>Travma ve acil durum dergilerinde yayın yapmak, uygulamaları değiştirmek için tek yoldur.</v>
       </c>
       <c r="D166" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="167">
@@ -2737,7 +2737,7 @@
         <v>Satıcıların her zaman bir eyalette yeterli fiziksel varlığı olmayabilir.</v>
       </c>
       <c r="D167" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="168">
@@ -2751,7 +2751,7 @@
         <v>Anlatıcı bir vampirdir ve bu onların vampir güçlerinden biridir.</v>
       </c>
       <c r="D168" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="169">
@@ -2765,7 +2765,7 @@
         <v>Eğer mevcut faiz oranı aynı kalırsa, hazine tahvili piyasa fiyatı da aynı kalır.</v>
       </c>
       <c r="D169" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="170">
@@ -2779,7 +2779,7 @@
         <v>Saab adında garip bir araba var, orada var olup olmadığından emin değilim.</v>
       </c>
       <c r="D170" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="171">
@@ -2793,7 +2793,7 @@
         <v>Hiçbir hükümetin bu ürüne ambargo uygulaması için tek bir neden yok.</v>
       </c>
       <c r="D171" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="172">
@@ -2821,7 +2821,7 @@
         <v>Şirketle herhangi bir faturalama deneyimimiz olmadı.</v>
       </c>
       <c r="D173" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="174">
@@ -2835,7 +2835,7 @@
         <v>Hiçbir iletişimin olmaması, hiçbir yalanın olmamasıyla eşdeğerdir.</v>
       </c>
       <c r="D174" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="175">
@@ -2849,7 +2849,7 @@
         <v>Eğer sağlığınız kötüyse, bir huzurevi iyi bir fikirdir.</v>
       </c>
       <c r="D175" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="176">
@@ -2863,7 +2863,7 @@
         <v>Eğer bu mal ücretsiz sunulursa, talep artar.</v>
       </c>
       <c r="D176" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="177">
@@ -2877,7 +2877,7 @@
         <v>Sert koşullarla yüzleşmeye ve Rusya'da kalmaya istekliydiler.</v>
       </c>
       <c r="D177" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="178">
@@ -2905,7 +2905,7 @@
         <v>18. yüzyıl Palazzo Grassi, Gae Aulenti olmasaydı, sunulamaz hale gelirdi.</v>
       </c>
       <c r="D179" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="180">
@@ -2919,7 +2919,7 @@
         <v>Çocuklarıyla birlikte çalışan ebeveynler, onları büyük bir dezavantaja sokuyor.</v>
       </c>
       <c r="D180" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="181">
@@ -2947,7 +2947,7 @@
         <v>Lincoln endişelenmedi ve yavaşça yürüdü.</v>
       </c>
       <c r="D182" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="183">
@@ -2961,7 +2961,7 @@
         <v>İyi yapıp yapmadığımı düşündüm.</v>
       </c>
       <c r="D183" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="184">
@@ -2989,7 +2989,7 @@
         <v>Kazandığımız açık.</v>
       </c>
       <c r="D185" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="186">
@@ -3003,7 +3003,7 @@
         <v>Güneş ışığı olmadığında, sanki bir mağarada yaşıyormuşum gibi hissediyorum.</v>
       </c>
       <c r="D186" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="187">
@@ -3017,7 +3017,7 @@
         <v>Yürümek seni kaybettirir.</v>
       </c>
       <c r="D187" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="188">
@@ -3031,7 +3031,7 @@
         <v>Sıralardaki şikayetler herhangi bir sonuç vermedi.</v>
       </c>
       <c r="D188" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="189">
@@ -3045,7 +3045,7 @@
         <v>Herkes Tommy'nin bağlantıyı yakalayacak kadar akıllı olmadığını biliyordu.</v>
       </c>
       <c r="D189" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="190">
@@ -3059,7 +3059,7 @@
         <v>Manchester'daki kızın sadece bir tuzak olduğunu düşünmek için nedenlerim var.</v>
       </c>
       <c r="D190" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="191">
@@ -3073,7 +3073,7 @@
         <v>Emirler bir din değildir.</v>
       </c>
       <c r="D191" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="192">
@@ -3087,7 +3087,7 @@
         <v>Eğer organizasyon, iş hedeflerini net bir şekilde anlıyorsa, önerilen bilgi sistemini bu hedeflere ulaşmak için kullanabilecektir.</v>
       </c>
       <c r="D192" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="193">
@@ -3115,7 +3115,7 @@
         <v>Ürün, olumsuz çevresel koşullara dayanma yeteneği açısından test edilmiştir.</v>
       </c>
       <c r="D194" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="195">
@@ -3129,7 +3129,7 @@
         <v>Gideceklerini söyleyecekler.</v>
       </c>
       <c r="D195" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="196">
@@ -3143,7 +3143,7 @@
         <v>Kuralları değiştirmemiz gerekecek.</v>
       </c>
       <c r="D196" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="197">
@@ -3157,7 +3157,7 @@
         <v>Adreste değilim.</v>
       </c>
       <c r="D197" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="198">
@@ -3171,7 +3171,7 @@
         <v>Ülke askeri kontrol edebilecekti.</v>
       </c>
       <c r="D198" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="199">
@@ -3185,7 +3185,7 @@
         <v>Eğer polis suçu tek bir kişinin işlediğine inanıyorsa, o kişiyi tutuklayacaklardır.</v>
       </c>
       <c r="D199" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="200">
@@ -3199,7 +3199,7 @@
         <v>Bunu kendim yapacağım.</v>
       </c>
       <c r="D200" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="201">
@@ -3213,7 +3213,7 @@
         <v>Yeni politika uygulanırsa sağlık sistemi baskı altında kalacaktır.</v>
       </c>
       <c r="D201" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="202">
@@ -3241,7 +3241,7 @@
         <v>Demokratlar Beyaz Sarayı kazanacak.</v>
       </c>
       <c r="D203" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="204">
@@ -3255,7 +3255,7 @@
         <v>Sana bir mektup yazacağım.</v>
       </c>
       <c r="D204" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="205">
@@ -3269,7 +3269,7 @@
         <v>Trenle gidebilirsin.</v>
       </c>
       <c r="D205" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="206">
@@ -3283,7 +3283,7 @@
         <v>Gözlerini devirdiğinde alaycıydı.</v>
       </c>
       <c r="D206" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="207">
@@ -3311,7 +3311,7 @@
         <v>Test etmenin maliyeti yüksek olacaktır.</v>
       </c>
       <c r="D208" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="209">
@@ -3325,7 +3325,7 @@
         <v>Eğer bir şeyi elde edemiyorsan, onu hak etmiyorsun.</v>
       </c>
       <c r="D209" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="210">
@@ -3339,7 +3339,7 @@
         <v>Ben akıllı bir adam değilim.</v>
       </c>
       <c r="D210" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="211">
@@ -3367,7 +3367,7 @@
         <v>Ay'daki adamın gönderecek bir mesajı yok.</v>
       </c>
       <c r="D212" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="213">
@@ -3381,7 +3381,7 @@
         <v>Sen de benim gibi olacaksın.</v>
       </c>
       <c r="D213" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="214">
@@ -3409,7 +3409,7 @@
         <v>Dünyada bunu yapmayan tek ülke olacağız.</v>
       </c>
       <c r="D215" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="216">
@@ -3423,7 +3423,7 @@
         <v>Posta servisi kapalı değil.</v>
       </c>
       <c r="D216" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="217">
@@ -3437,7 +3437,7 @@
         <v>Kuzey Vietnamlılar bize saldırmamış olurlardı eğer biz onlara saldırmamış olsaydık.</v>
       </c>
       <c r="D217" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="218">
@@ -3451,7 +3451,7 @@
         <v>Fikir tam olarak düşünülmemiş.</v>
       </c>
       <c r="D218" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="219">
@@ -3465,7 +3465,7 @@
         <v>Kalbime bir bıçak saplandı.</v>
       </c>
       <c r="D219" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="220">
@@ -3479,7 +3479,7 @@
         <v>Eğer söylediklerimi yapmazsan, sonuçlarıyla yüzleşmek zorunda kalacaksın.</v>
       </c>
       <c r="D220" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="221">
@@ -3507,7 +3507,7 @@
         <v>Senato bütçeyi onayladı.</v>
       </c>
       <c r="D222" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="223">
@@ -3521,7 +3521,7 @@
         <v>Silahla güvenilir değilsin.</v>
       </c>
       <c r="D223" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="224">
@@ -3535,7 +3535,7 @@
         <v>Dağıtım rotası kâr marjlarının standart sapması küçüktür.</v>
       </c>
       <c r="D224" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="225">
@@ -3549,7 +3549,7 @@
         <v>Sorular aynı değil.</v>
       </c>
       <c r="D225" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="226">
@@ -3563,7 +3563,7 @@
         <v>Eski atasözü doğrudur.</v>
       </c>
       <c r="D226" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="227">
@@ -3577,7 +3577,7 @@
         <v>Valinin özel bir savcı ataması bekleniyordu.</v>
       </c>
       <c r="D227" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="228">
@@ -3591,7 +3591,7 @@
         <v>Amerika Birleşik Devletleri bir muz cumhuriyeti haline gelecekti.</v>
       </c>
       <c r="D228" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="229">
@@ -3633,7 +3633,7 @@
         <v>Bunun sonucu, sanata olan kamu ilgisini artırmak oldu.</v>
       </c>
       <c r="D231" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="232">
@@ -3647,7 +3647,7 @@
         <v>Sorunun kök nedenleri belirlenmiyor.</v>
       </c>
       <c r="D232" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="233">
@@ -3661,7 +3661,7 @@
         <v>Kitap büyülü.</v>
       </c>
       <c r="D233" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="234">
@@ -3675,7 +3675,7 @@
         <v>Eğer iyi bir masa istersen, iyi bir masa alırsın.</v>
       </c>
       <c r="D234" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="235">
@@ -3689,7 +3689,7 @@
         <v>Gelecekte benzer bir senaryonun gerçekleşmesi imkansızdır.</v>
       </c>
       <c r="D235" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="236">
@@ -3703,7 +3703,7 @@
         <v>Transfer edilen mülkün gerçeğe uygun değeri, alınan mülkün değeriyle aynıdır.</v>
       </c>
       <c r="D236" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="237">
@@ -3717,7 +3717,7 @@
         <v>Onu icat eden adamın bununla bir sorunu var.</v>
       </c>
       <c r="D237" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="238">
@@ -3731,7 +3731,7 @@
         <v>Eğer tek bir kimliğimiz olduğunu söyleyebiliyorsak, bu kolektif bir kimliktir.</v>
       </c>
       <c r="D238" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="239">
@@ -3745,7 +3745,7 @@
         <v>Partiye takım elbisenle gitmek şanssızlık değildir.</v>
       </c>
       <c r="D239" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="240">
@@ -3759,7 +3759,7 @@
         <v>Köpek odada değildi, bu yüzden ses duyulmadı.</v>
       </c>
       <c r="D240" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="241">
@@ -3773,7 +3773,7 @@
         <v>Führer, toplama kamplarındaki Yahudilerin yok edilmesini emretmedi.</v>
       </c>
       <c r="D241" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="242">
@@ -3829,7 +3829,7 @@
         <v>Eğer uyuyakalırsam, filmi kaçırırım.</v>
       </c>
       <c r="D245" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="246">
@@ -3843,7 +3843,7 @@
         <v>Tesis, kuralın gerekliliklerine uyumlu olup olmadığını belirleyemeyecektir.</v>
       </c>
       <c r="D246" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="247">
@@ -3857,7 +3857,7 @@
         <v>Sanki yeni ödeme almış gibi görünüyor.</v>
       </c>
       <c r="D247" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="248">
@@ -3871,7 +3871,7 @@
         <v>Bunu yapmak zorunda kalmayacağım.</v>
       </c>
       <c r="D248" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="249">
@@ -3885,7 +3885,7 @@
         <v>Başkan bir politikacıdır.</v>
       </c>
       <c r="D249" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="250">
@@ -3899,7 +3899,7 @@
         <v>Eğer belirgin bir tehdit yoksa, bir tane uydurmak iyi bir fikir olabilir.</v>
       </c>
       <c r="D250" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="251">
@@ -3913,7 +3913,7 @@
         <v>Parti, bu konuda bir tutum alacak.</v>
       </c>
       <c r="D251" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="252">
@@ -3927,7 +3927,7 @@
         <v>Posta Servisi, emekli sağlık yardımları için federal hükümete olan mevcut yükümlülüğünü en az önümüzdeki on yıl boyunca yerine getirebilecektir.</v>
       </c>
       <c r="D252" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="253">
@@ -3941,7 +3941,7 @@
         <v>Kriz daha da kötüleşmeye devam edecek.</v>
       </c>
       <c r="D253" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="254">
@@ -3955,7 +3955,7 @@
         <v>Yüksek bir borç seviyesine sahip olmak bir sorundur.</v>
       </c>
       <c r="D254" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="255">
@@ -3969,7 +3969,7 @@
         <v>Savaş bitmedi.</v>
       </c>
       <c r="D255" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="256">
@@ -3983,7 +3983,7 @@
         <v>Sorunu çözmenin en iyi yolu, tüm arabaları ortadan kaldırmaktır.</v>
       </c>
       <c r="D256" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="257">
@@ -4025,7 +4025,7 @@
         <v>Eğer bunu yapmazsan, pişman olacaksın.</v>
       </c>
       <c r="D259" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="260">
@@ -4039,7 +4039,7 @@
         <v>Yarının teknolojisi, bugünün sorunlarını çözme kapasitesine sahiptir.</v>
       </c>
       <c r="D260" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="261">
@@ -4053,7 +4053,7 @@
         <v>Ailede ve okulda gerçekleşen sosyalleşme ve öğrenme süreci kesintiye uğrar.</v>
       </c>
       <c r="D261" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="262">
@@ -4067,7 +4067,7 @@
         <v>Şarap sirkeye dönüştürülebilir.</v>
       </c>
       <c r="D262" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="263">
@@ -4081,7 +4081,7 @@
         <v>Dolar düşecek ve yen yükselecek.</v>
       </c>
       <c r="D263" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="264">
@@ -4095,7 +4095,7 @@
         <v>Değişiklik 1 Ocak 2017'de yürürlüğe girecektir.</v>
       </c>
       <c r="D264" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="265">
@@ -4109,7 +4109,7 @@
         <v>Bizi kurtaracak tek şey, karşılıklı anlayış alanına ulaşabilmemizdir.</v>
       </c>
       <c r="D265" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="266">
@@ -4123,7 +4123,7 @@
         <v>Okul bölgesi tahvil çıkaramaz.</v>
       </c>
       <c r="D266" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="267">
@@ -4137,7 +4137,7 @@
         <v>Eğer işgücü maliyetleri ayarlanmıyorsa, işgücü verimliliğinin ayarlanıp ayarlanmayacağı belirsizdir.</v>
       </c>
       <c r="D267" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="268">
@@ -4165,7 +4165,7 @@
         <v>Bay Smithers bir hayalet gördü.</v>
       </c>
       <c r="D269" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="270">
@@ -4179,7 +4179,7 @@
         <v>Mevcut model kötü.</v>
       </c>
       <c r="D270" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="271">
@@ -4193,7 +4193,7 @@
         <v>Hastalar arasında aşırı alkol tüketimini belirlemek, tek bir oturumda içilen içki sayısıyla kesin olarak belirlenmez.</v>
       </c>
       <c r="D271" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="272">
@@ -4207,7 +4207,7 @@
         <v>Üretici, asgari ücreti ödemek zorunda kalacak.</v>
       </c>
       <c r="D272" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="273">
@@ -4221,7 +4221,7 @@
         <v>Yeni sözleşme 1 Ocak 2015'te yürürlüğe girecek.</v>
       </c>
       <c r="D273" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="274">
@@ -4249,7 +4249,7 @@
         <v>Eğer çok fazla mükemmeliyetçi değilseniz, iyi bir ürün yapabilirsiniz.</v>
       </c>
       <c r="D275" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="276">
@@ -4263,7 +4263,7 @@
         <v>Finans sektörü önemli değildir.</v>
       </c>
       <c r="D276" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="277">
@@ -4291,7 +4291,7 @@
         <v>Askerler zaten ölmüş.</v>
       </c>
       <c r="D278" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="279">
@@ -4305,7 +4305,7 @@
         <v>Bir iş bulmam gerekiyor.</v>
       </c>
       <c r="D279" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="280">
@@ -4333,7 +4333,7 @@
         <v>Henüz okumadım.</v>
       </c>
       <c r="D281" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="282">
@@ -4347,7 +4347,7 @@
         <v>Eğer mevcut faiz oranı aynı kalırsa, hazine tahvili piyasa fiyatı da aynı kalır.</v>
       </c>
       <c r="D282" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="283">
@@ -4361,7 +4361,7 @@
         <v>Kâr amacı gütmeyen kuruluşlar dünyanın kaderini değiştirme gücüne sahip değildir.</v>
       </c>
       <c r="D283" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="284">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -4375,7 +4375,7 @@
         <v>Yardım edebilecek bir konumda olsaydım, öyle yapardım.</v>
       </c>
       <c r="D284" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="285">
@@ -4389,7 +4389,7 @@
         <v>Makine işçinin patronu değildi.</v>
       </c>
       <c r="D285" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="286">
@@ -4403,7 +4403,7 @@
         <v>Eminsin.</v>
       </c>
       <c r="D286" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="287">
@@ -4417,7 +4417,7 @@
         <v>Bu tekrar değerlendirilecektir.</v>
       </c>
       <c r="D287" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="288">
@@ -4445,7 +4445,7 @@
         <v>Yine de cevap verecekti.</v>
       </c>
       <c r="D289" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="290">
@@ -4459,7 +4459,7 @@
         <v>Sinemaya gitmeye paraları yetmiyor.</v>
       </c>
       <c r="D290" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="291">
@@ -4487,7 +4487,7 @@
         <v>Eğer bir zıtlar çifti varsa, her zaman sahte bir ikilem elde edebiliriz.</v>
       </c>
       <c r="D292" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="293">
@@ -4501,7 +4501,7 @@
         <v>Şirket iflas edecek.</v>
       </c>
       <c r="D293" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="294">
@@ -4515,7 +4515,7 @@
         <v>Ülkenin bu sorunla ilgisi yok, çünkü medya bunu görmezden gelmeyi tercih etti.</v>
       </c>
       <c r="D294" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="295">
@@ -4529,7 +4529,7 @@
         <v>Çocuk gayri meşru değil.</v>
       </c>
       <c r="D295" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="296">
@@ -4543,7 +4543,7 @@
         <v>Yeni yasalar kabul edilirse, ayrı bir Kadın İşleri Bakanlığı kurulacaktır.</v>
       </c>
       <c r="D296" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="297">
@@ -4557,7 +4557,7 @@
         <v>Askeri güç büyük ölçüde azaltılmıştır.</v>
       </c>
       <c r="D297" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="298">
@@ -4571,7 +4571,7 @@
         <v>Eğer onarımları yapmazsan, onarımların tamamının maliyetinden sorumlu olacaksın.</v>
       </c>
       <c r="D298" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="299">
@@ -4585,7 +4585,7 @@
         <v>Eğer bir şikayetiniz varsa, başkana yazın.</v>
       </c>
       <c r="D299" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="300">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -4627,7 +4627,7 @@
         <v>Brook, Tayland mutfağını ilk kez denedi.</v>
       </c>
       <c r="D302" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="303">
@@ -4641,7 +4641,7 @@
         <v>P60, bir okul yönetim kurulu üyesinin editöre yazdığı mektuptur; bu mektupta, davada olanları yeniden anlatmaktadır.</v>
       </c>
       <c r="D303" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="304">
@@ -4655,7 +4655,7 @@
         <v>Okul kütüphanelerinin yıllıkları vardır.</v>
       </c>
       <c r="D304" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="305">
@@ -4669,7 +4669,7 @@
         <v>Bu hikaye bir adam tarafından bildirildi.</v>
       </c>
       <c r="D305" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="306">
@@ -4683,7 +4683,7 @@
         <v>Rehber, insanların kahveyi gün ortasında hazırlamalarını tavsiye etmiyor.</v>
       </c>
       <c r="D306" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="307">
@@ -4697,7 +4697,7 @@
         <v>Jason ile iyi geçinemedim.</v>
       </c>
       <c r="D307" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="308">
@@ -4725,7 +4725,7 @@
         <v>Bazı maddelerin çevresel etkileri nedeniyle piyasadan kaldırılması gerekiyor.</v>
       </c>
       <c r="D309" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="310">
@@ -4739,7 +4739,7 @@
         <v>Komisyon, rüzgar enerjisiyle ilgili bir teklifi değerlendiriyor.</v>
       </c>
       <c r="D310" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="311">
@@ -4753,7 +4753,7 @@
         <v>Adam Almanya'dan nefret ediyor.</v>
       </c>
       <c r="D311" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="312">
@@ -4767,7 +4767,7 @@
         <v>Suya ihtiyaç olacak.</v>
       </c>
       <c r="D312" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="313">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -4781,7 +4781,7 @@
         <v>Mark Cavendish, Tour de France'dan çekildi.</v>
       </c>
       <c r="D313" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="314">
@@ -4795,7 +4795,7 @@
         <v>Hikayeniz için neden iyi bir kaynak olduğunu düşündüğünüzü belirttikten sonra, röportajdan sonra onları şantaj yapmak için bekleyin.</v>
       </c>
       <c r="D314" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="315">
@@ -4809,7 +4809,7 @@
         <v>Kraliyetçiler sadece sarı giyer.</v>
       </c>
       <c r="D315" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="316">
@@ -4823,7 +4823,7 @@
         <v>İyi bir anıyı düşünmek, bir mektup yazmak için faydalı olabilir.</v>
       </c>
       <c r="D316" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="317">
@@ -4837,7 +4837,7 @@
         <v>sağ ok doğru yolu gösterdi</v>
       </c>
       <c r="D317" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="318">
@@ -4851,7 +4851,7 @@
         <v>Bazı meyvelerden kaçınılması en iyisidir.</v>
       </c>
       <c r="D318" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="319">
@@ -4865,7 +4865,7 @@
         <v>Tie Dye, bir sonraki doğum gününde on sekiz yaşında olacak.</v>
       </c>
       <c r="D319" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="320">
@@ -4893,7 +4893,7 @@
         <v>Avrupalılar Bosna'da barış koruyuculardır.</v>
       </c>
       <c r="D321" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="322">
@@ -4907,7 +4907,7 @@
         <v>Atın evcil bir at olması gerekiyor.</v>
       </c>
       <c r="D322" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="323">
@@ -4921,7 +4921,7 @@
         <v>Bu süreç DVD'leri kopyalamak için kullanılabilir.</v>
       </c>
       <c r="D323" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="324">
@@ -4949,7 +4949,7 @@
         <v>Suzy'nin saçlarına biraz şekil vermesi gerekiyordu.</v>
       </c>
       <c r="D325" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="326">
@@ -4963,7 +4963,7 @@
         <v>Bu bir ikinci el oyuncaktı.</v>
       </c>
       <c r="D326" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="327">
@@ -4977,7 +4977,7 @@
         <v>Silahlar pahalıdır ve polisin bu paranın kendilerine yönlendirilmesine ihtiyacı var.</v>
       </c>
       <c r="D327" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="328">
@@ -4991,7 +4991,7 @@
         <v>Maya okulunu nefret ediyordu.</v>
       </c>
       <c r="D328" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="329">
@@ -5005,7 +5005,7 @@
         <v>Bu bağlamdaki son ifade alaycı bir yorumdur.</v>
       </c>
       <c r="D329" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="330">
@@ -5019,7 +5019,7 @@
         <v>Randy, satın aldığı içeceklerin yalnızca %11'ini içiyor.</v>
       </c>
       <c r="D330" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="331">
@@ -5033,7 +5033,7 @@
         <v>Öncelikle antibakteriyel sabun kullanarak ellerinizi yıkadığınızdan ve bol su ile iyi bir şekilde duruladığınızdan emin olun.</v>
       </c>
       <c r="D331" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="332">
@@ -5047,7 +5047,7 @@
         <v>Hellgate, Amerika'da Tayland'dan önce piyasaya sürüldü.</v>
       </c>
       <c r="D332" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="333">
@@ -5061,7 +5061,7 @@
         <v>Ofisi, birçok yıl boyunca çeşitli gizlilik kodlarının denetleyicisi olarak görev yapmıştır.</v>
       </c>
       <c r="D333" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="334">
@@ -5075,7 +5075,7 @@
         <v>Sarah lahana suyu almadı.</v>
       </c>
       <c r="D334" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="335">
@@ -5089,7 +5089,7 @@
         <v>Dire Straits, Amerika Birleşik Devletleri'nde popüler olmak istemedi.</v>
       </c>
       <c r="D335" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="336">
@@ -5103,7 +5103,7 @@
         <v>Sağlıklı insanlar asla hasta olmaz.</v>
       </c>
       <c r="D336" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="337">
@@ -5117,7 +5117,7 @@
         <v>Ethan, Amerika'nın komşusunu ziyaret etti.</v>
       </c>
       <c r="D337" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="338">
@@ -5131,7 +5131,7 @@
         <v>Bütçe önlemleri, geri ödenen kredileri içermektedir.</v>
       </c>
       <c r="D338" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="339">
@@ -5145,7 +5145,7 @@
         <v>Tim'in yeni tepsilere ihtiyacı var.</v>
       </c>
       <c r="D339" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="340">
@@ -5159,7 +5159,7 @@
         <v>Tim, bekarlığa veda partisinden dolayı nişanlısını düğünden önce terk etti.</v>
       </c>
       <c r="D340" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="341">
@@ -5173,7 +5173,7 @@
         <v>Silah yasaları önemlidir ama çocukları sevmek değil.</v>
       </c>
       <c r="D341" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="342">
@@ -5187,7 +5187,7 @@
         <v>Gizlilik Komiseri, denetim için bir savunucu olmuştur.</v>
       </c>
       <c r="D342" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="343">
@@ -5201,7 +5201,7 @@
         <v>Steven uzun zamandır yüzüyor.</v>
       </c>
       <c r="D343" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="344">
@@ -5215,7 +5215,7 @@
         <v>Tazmanya Yasama Meclisi, Hobart'tan taşınmak istiyor.</v>
       </c>
       <c r="D344" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="345">
@@ -5243,7 +5243,7 @@
         <v>Yeni doğmuş yavru köpekleri beslemek birçok malzeme gerektirir.</v>
       </c>
       <c r="D346" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="347">
@@ -5257,7 +5257,7 @@
         <v>Parasailing, Lucy için bir hayalin gerçekleşmesiydi.</v>
       </c>
       <c r="D347" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="348">
@@ -5271,7 +5271,7 @@
         <v>Amca Sam ilk albümüne "Amca Sammy" adını verdi.</v>
       </c>
       <c r="D348" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="349">
@@ -5285,7 +5285,7 @@
         <v>Davalı, hakimin yorumlarının kayıtlara geçmesine itiraz ediyor.</v>
       </c>
       <c r="D349" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="350">
@@ -5299,7 +5299,7 @@
         <v>Reba, saatini bir soyguncuya kaptırdı.</v>
       </c>
       <c r="D350" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="351">
@@ -5313,7 +5313,7 @@
         <v>Tavanı ocakta koy.</v>
       </c>
       <c r="D351" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="352">
@@ -5327,7 +5327,7 @@
         <v>"Hank ve Mutluluğun Peşinde", "Şans" ve "Dans Edelim Mi?" gibi filmleri yönetti.</v>
       </c>
       <c r="D352" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="353">
@@ -5341,7 +5341,7 @@
         <v>Çözüm, Kolombiya uyuşturucu mafyasına karşı aktif bir mücadeleye dayanmamaktadır.</v>
       </c>
       <c r="D353" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="354">
@@ -5355,7 +5355,7 @@
         <v>Bir matkap kullanarak karpuzlu smoothie yapmak için çok büyük bir sandalyeye ihtiyaç var.</v>
       </c>
       <c r="D354" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="355">
@@ -5369,7 +5369,7 @@
         <v>Josh evini özlüyor.</v>
       </c>
       <c r="D355" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="356">
@@ -5383,7 +5383,7 @@
         <v>Başkan bir savaş başlattı.</v>
       </c>
       <c r="D356" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="357">
@@ -5397,7 +5397,7 @@
         <v>Kocam, golfte kötü olduğum konusunda haklıydı.</v>
       </c>
       <c r="D357" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="358">
@@ -5411,7 +5411,7 @@
         <v>Alejandro Ghersi, Meksikalı bir prodüktördür.</v>
       </c>
       <c r="D358" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="359">
@@ -5425,7 +5425,7 @@
         <v>saat dokuz otuzda çıktılar.</v>
       </c>
       <c r="D359" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="360">
@@ -5439,7 +5439,7 @@
         <v>Kanada'daki Muhafazakâr Parti, Avam Kamarası'nda uygun fiyatlı konutları tartışmak istiyor.</v>
       </c>
       <c r="D360" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="361">
@@ -5453,7 +5453,7 @@
         <v>siyanür gerekli değildir</v>
       </c>
       <c r="D361" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="362">
@@ -5467,7 +5467,7 @@
         <v>O, nehrin üzerinden uçtu.</v>
       </c>
       <c r="D362" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="363">
@@ -5481,7 +5481,7 @@
         <v>Anlatıcı, Bay Landry'ye tüm bilgilerin verilip verilmediğini öğrenmek istiyor.</v>
       </c>
       <c r="D363" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="364">
@@ -5495,7 +5495,7 @@
         <v>İnsan Türleri Gelişimi Bakanı ve yetkililerinin söylediklerimi gerçekten dikkate alacaklarını umuyorum.</v>
       </c>
       <c r="D364" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="365">
@@ -5509,7 +5509,7 @@
         <v>100 metre sprint koşusu az dayanıklılık antrenmanı gerektirir.</v>
       </c>
       <c r="D365" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="366">
@@ -5523,7 +5523,7 @@
         <v>Alan Metter savaş filmleri yönetmiştir.</v>
       </c>
       <c r="D366" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="367">
@@ -5537,7 +5537,7 @@
         <v>İslami Cihad, liderinin serbest bırakılmasını ve İran'a uygulanan ambargonun kaldırılmasını istiyor.</v>
       </c>
       <c r="D367" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="368">
@@ -5551,7 +5551,7 @@
         <v>anna insanlarla etkileşimde bulunuyor.</v>
       </c>
       <c r="D368" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="369">
@@ -5565,7 +5565,7 @@
         <v>Ağaç devrildi.</v>
       </c>
       <c r="D369" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="370">
@@ -5579,7 +5579,7 @@
         <v>İş yasaları Meclis'te ilerleme kaydetti.</v>
       </c>
       <c r="D370" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="371">
@@ -5593,7 +5593,7 @@
         <v>Arlington, Va.'dan 44 yaşındaki Kevin Vincent, eşinin Aleve markası asetaminofen aldığını ve sorunu daha fazla öğrenmek istediğini söyledi.</v>
       </c>
       <c r="D371" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="372">
@@ -5607,7 +5607,7 @@
         <v>Kırmızı gömlekler, kırsal ve yoksul kesimlerin destekçileri olup Başbakan'ı desteklemektedir.</v>
       </c>
       <c r="D372" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="373">
@@ -5621,7 +5621,7 @@
         <v>Randy biraz votka aldı.</v>
       </c>
       <c r="D373" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="374">
@@ -5635,7 +5635,7 @@
         <v>Vatandaşlar yeni bir başkan istemiyordu.</v>
       </c>
       <c r="D374" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="375">
@@ -5649,7 +5649,7 @@
         <v>Braun Strowman'ın Brock Lesnar ile bir sorunu var.</v>
       </c>
       <c r="D375" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="376">
@@ -5663,7 +5663,7 @@
         <v>Ethan İtalyan yemeği yedi.</v>
       </c>
       <c r="D376" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="377">
@@ -5677,7 +5677,7 @@
         <v>Veri planınız telefon operatörünüz tarafından belirlenir.</v>
       </c>
       <c r="D377" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="378" xml:space="preserve">
@@ -5701,7 +5701,7 @@
         <v>Vali, Caleb'e eve dönerken yolun yakın tarafında kalmasını söyledi.</v>
       </c>
       <c r="D378" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="379">
@@ -5715,7 +5715,7 @@
         <v>Rufus Wainwright'ın "I Don't Know What It Is" şarkısı, ikinci albümünden sonra ancak 27 Temmuz 2004'ten önce yayımlandı.</v>
       </c>
       <c r="D379" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="380">
@@ -5729,7 +5729,7 @@
         <v>1950'lerde, Amerika Birleşik Devletleri FBI'ı, On En Çok Aranan Kötü Adam olarak gördüğü kişilerin kamuya açık bir listesini tutmaya başladı.</v>
       </c>
       <c r="D380" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="381">
@@ -5743,7 +5743,7 @@
         <v>Belirli bir rolde iyi bir patron olmanın ikinci adımı, işi ve başarılı olmak için gerekenleri mükemmel bir şekilde anlamaktır.</v>
       </c>
       <c r="D381" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="382">
@@ -5757,7 +5757,7 @@
         <v>Anonim bir metin adınızı ortaya çıkarmaz.</v>
       </c>
       <c r="D382" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="383">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -5771,7 +5771,7 @@
         <v>Bath, Maine ve Sagadahoc County, Demokratik Grup Lideri Mary Small tarafından temsil edildi.</v>
       </c>
       <c r="D383" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="384">
@@ -5785,7 +5785,7 @@
         <v>Kate'in kızı antisosyal.</v>
       </c>
       <c r="D384" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="385">
@@ -5799,7 +5799,7 @@
         <v>Pamunuwa, Doğu Eyaleti içinde yer almamaktadır.</v>
       </c>
       <c r="D385" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="386">
@@ -5827,7 +5827,7 @@
         <v>Sammy, beyzbolu titizlikle çalıştı.</v>
       </c>
       <c r="D387" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="388">
@@ -5841,7 +5841,7 @@
         <v>Steven'in çocukluk hobisi bir kariyere dönüştü.</v>
       </c>
       <c r="D388" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="389">
@@ -5855,7 +5855,7 @@
         <v>Hükümetteki insanlar birbirlerini suçluyor ve nefret dolu davranıyorlar.</v>
       </c>
       <c r="D389" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="390">
@@ -5869,7 +5869,7 @@
         <v>What a Girl Wants, Belçika'da gümüş sertifika kazandı.</v>
       </c>
       <c r="D390" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="391">
@@ -5883,7 +5883,7 @@
         <v>Anoreksi nervoza, yanlış bir şekilde yiyecek kısıtlaması ile karakterize olduğu düşünülmektedir.</v>
       </c>
       <c r="D391" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="392">
@@ -5897,7 +5897,7 @@
         <v>Tina Turner, bir Indiana Jones filmi için bir şarkı yaptı.</v>
       </c>
       <c r="D392" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="393">
@@ -5911,7 +5911,7 @@
         <v>Wyatt Earp bir insandı.</v>
       </c>
       <c r="D393" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="394">
@@ -5925,7 +5925,7 @@
         <v>Tina Turner, Golden Eye için bir şarkı yaptı.</v>
       </c>
       <c r="D394" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="395">
@@ -5953,7 +5953,7 @@
         <v>DJ Khaled, 11 Eylül 2008'den sonra adını değiştirdi.</v>
       </c>
       <c r="D396" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="397">
@@ -5967,7 +5967,7 @@
         <v>Barbara Bush, Çocuk Okuryazarlığı için Barbara Bush Vakfı'nı kurdu.</v>
       </c>
       <c r="D397" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="398">
@@ -5981,7 +5981,7 @@
         <v>Randall Flagg, The Stand ve Karanlık Kule'de yer almıştır.</v>
       </c>
       <c r="D398" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="399">
@@ -5995,7 +5995,7 @@
         <v>What a Girl Wants, ABD'de altın sertifika kazandı.</v>
       </c>
       <c r="D399" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="400">
@@ -6009,7 +6009,7 @@
         <v>Megan Fox, Faith Ford ile çalıştı.</v>
       </c>
       <c r="D400" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="401">
@@ -6023,7 +6023,7 @@
         <v>Kara Şövalye, Gotham Şehri'nde geçiyor.</v>
       </c>
       <c r="D401" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="402">
@@ -6037,7 +6037,7 @@
         <v>Fight Club'da Brad Pitt başrolde.</v>
       </c>
       <c r="D402" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="403">
@@ -6065,7 +6065,7 @@
         <v>Doktor Who yalnız seyahat eder.</v>
       </c>
       <c r="D404" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="405">
@@ -6093,7 +6093,7 @@
         <v>Jeff Bezos, Facebook'un kurucusudur.</v>
       </c>
       <c r="D406" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="407">
@@ -6107,7 +6107,7 @@
         <v>Tina Turner'ın "Break Every Rule" albümü altın plak kazandı.</v>
       </c>
       <c r="D407" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="408">
@@ -6121,7 +6121,7 @@
         <v>Doc Holliday hiç Atlanta'da pratik yapmadı.</v>
       </c>
       <c r="D408" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="409">
@@ -6135,7 +6135,7 @@
         <v>Psikoloji, akademik bir disiplindir.</v>
       </c>
       <c r="D409" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="410">
@@ -6149,7 +6149,7 @@
         <v>Narendra Modi, bir Hint siyasetçisidir.</v>
       </c>
       <c r="D410" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="411">
@@ -6163,7 +6163,7 @@
         <v>Doctor Who, birçok sanatçı tarafından canlandırılmıştır.</v>
       </c>
       <c r="D411" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="412">
@@ -6177,7 +6177,7 @@
         <v>Kaplan, vizyonunu gerçekleştirmek istiyor.</v>
       </c>
       <c r="D412" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="413">
@@ -6191,7 +6191,7 @@
         <v>İstediği şeylerin yıllık olarak gösterildiği bir rapor verildi.</v>
       </c>
       <c r="D413" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="414">
@@ -6205,7 +6205,7 @@
         <v>Bu Koşer yasaları, korunan hayvanların gelişmesine olanak tanımıştır.</v>
       </c>
       <c r="D414" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="415">
@@ -6219,7 +6219,7 @@
         <v>Abbe Lowell, Starr'ın sorgulamasından faydalanmayı planlıyor.</v>
       </c>
       <c r="D415" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="416">
@@ -6261,7 +6261,7 @@
         <v>Dünya, makroekonomi ile iyi bir rehberlik ile yönetilecektir.</v>
       </c>
       <c r="D418" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="419">
@@ -6275,7 +6275,7 @@
         <v>Joyce aradığı parçayı bulamıyor.</v>
       </c>
       <c r="D419" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="420">
@@ -6289,7 +6289,7 @@
         <v>Yazar soruyu kasıtlı olarak belirsiz hale getirdi.</v>
       </c>
       <c r="D420" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="421">
@@ -6317,7 +6317,7 @@
         <v>Umut verici başlangıcına rağmen, marka sürekli bir düşüş içinde.</v>
       </c>
       <c r="D422" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="423">
@@ -6345,7 +6345,7 @@
         <v>Tüm Mazda arabalarını seviyorum.</v>
       </c>
       <c r="D424" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="425">
@@ -6359,7 +6359,7 @@
         <v>Onların dinlenmesi gerekiyor.</v>
       </c>
       <c r="D425" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="426">
@@ -6373,7 +6373,7 @@
         <v>Adamın adını bilmeleri gerekiyordu.</v>
       </c>
       <c r="D426" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="427">
@@ -6387,7 +6387,7 @@
         <v>Greenspan'ın ifadesinin yeniden ifade edilmesi gerekiyordu.</v>
       </c>
       <c r="D427" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="428">
@@ -6401,7 +6401,7 @@
         <v>Yazar, Reagan'ın eleştiri almasını istedi.</v>
       </c>
       <c r="D428" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="429">
@@ -6415,7 +6415,7 @@
         <v>Kadın bekar.</v>
       </c>
       <c r="D429" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="430">
@@ -6429,7 +6429,7 @@
         <v>Katz, Washington Post'ta yayımlanmayı umutsuzca istiyor.</v>
       </c>
       <c r="D430" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="431">
@@ -6443,7 +6443,7 @@
         <v>Microsoft, pazarında güçlü bir oyuncudur ve sorunları etkisiz hale getirme yeteneğine sahiptir.</v>
       </c>
       <c r="D431" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="432">
@@ -6457,7 +6457,7 @@
         <v>Springer popüler değil.</v>
       </c>
       <c r="D432" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="433">
@@ -6471,7 +6471,7 @@
         <v>Herkes onun aşk hayatıyla ilgili kendi işine bakmalı.</v>
       </c>
       <c r="D433" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="434">
@@ -6485,7 +6485,7 @@
         <v>Inglis uzun bir otoyol inşa etti.</v>
       </c>
       <c r="D434" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="435">
@@ -6513,7 +6513,7 @@
         <v>Askerler ona yardım etmek istediler.</v>
       </c>
       <c r="D436" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="437">
@@ -6541,7 +6541,7 @@
         <v>Ana karakter ve kardeşleri Japonya'da büyürler.</v>
       </c>
       <c r="D438" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="439">
@@ -6569,7 +6569,7 @@
         <v>Jesse Ventura, Pat'ın adaylığı kazanmasını istemiyor.</v>
       </c>
       <c r="D440" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="441">
@@ -6583,7 +6583,7 @@
         <v>Yeni teknoloji, son dakika haberlerini bir gazeteye atıyor.</v>
       </c>
       <c r="D441" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="442">
@@ -6597,7 +6597,7 @@
         <v>Gerekene kıyasla küçük bir miktar.</v>
       </c>
       <c r="D442" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="443">
@@ -6611,7 +6611,7 @@
         <v>Kirkbuzzers* loncasının ona ihtiyacı var.</v>
       </c>
       <c r="D443" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="444">
@@ -6625,7 +6625,7 @@
         <v>Cumhuriyetçiler genellikle bütçe açığı olduğunda yoksul seçmenlerine geri vermeye çalışırlar.</v>
       </c>
       <c r="D444" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="445">
@@ -6639,7 +6639,7 @@
         <v>PointCast, bir firma olarak ilk yazılım ürününü çıkarmaya çalışıyor.</v>
       </c>
       <c r="D445" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="446">
@@ -6653,7 +6653,7 @@
         <v>Bettelheim, bir rehber olmanın önemine odaklandı.</v>
       </c>
       <c r="D446" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="447">
@@ -6667,7 +6667,7 @@
         <v>Romanı kurtarmak için çılgına dönen eleştirmenler, 40 yıl önce onu öldürmek istiyorlardı.</v>
       </c>
       <c r="D447" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="448">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -6695,7 +6695,7 @@
         <v>Kadın, erkeğin hız ihtiyacını karşılar.</v>
       </c>
       <c r="D449" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="450">
@@ -6709,7 +6709,7 @@
         <v>Sosyal ödeme sistemlerini kesmek, ulusal liderler için baskı yaratır.</v>
       </c>
       <c r="D450" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="451">
@@ -6723,7 +6723,7 @@
         <v>Avrupa hükümetleri geri arama hizmetlerine büyük vergiler koyuyor.</v>
       </c>
       <c r="D451" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="452">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -6737,7 +6737,7 @@
         <v>Federal hükümet, felaket paralarının çok talep edildiğini biliyor.</v>
       </c>
       <c r="D452" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="453">
@@ -6751,7 +6751,7 @@
         <v>Nasıl gittiğinden tamamen memnunum.</v>
       </c>
       <c r="D453" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="454">
@@ -6765,7 +6765,7 @@
         <v>Bazıları özel savcılardan vazgeçmek istiyor.</v>
       </c>
       <c r="D454" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="455">
@@ -6779,7 +6779,7 @@
         <v>Gabriel'in Ateşi'ni bulmak istiyorum; bu benim favorim.</v>
       </c>
       <c r="D455" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="456">
@@ -6793,7 +6793,7 @@
         <v>LSC, önerilen kılavuzun etkinliği konusunda şüpheler taşıyordu.</v>
       </c>
       <c r="D456" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="457">
@@ -6807,7 +6807,7 @@
         <v>Tommy gerçekten bilmek istiyordu.</v>
       </c>
       <c r="D457" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="458">
@@ -6821,7 +6821,7 @@
         <v>Bu inceleme, müdahale etme nedenini çürütmeye çalışacaktır.</v>
       </c>
       <c r="D458" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="459">
@@ -6835,7 +6835,7 @@
         <v>Yasaların etkili olup olduğunu bilmek imkansızdır.</v>
       </c>
       <c r="D459" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="460">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -6849,7 +6849,7 @@
         <v>Teneke kutuların içindekilere bakmak onu kusturmak istedi.</v>
       </c>
       <c r="D460" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="461">
@@ -6863,7 +6863,7 @@
         <v>İstemediği halde gergindi.</v>
       </c>
       <c r="D461" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="462">
@@ -6877,7 +6877,7 @@
         <v>Oğlum gerçekten bir köpek sahibi olmak istiyor.</v>
       </c>
       <c r="D462" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="463">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -6905,7 +6905,7 @@
         <v>Genel olarak çevresini sevmesine rağmen, sonbahar sellerinden kaçınmak için kısa süre içinde ayrılmak istedi.</v>
       </c>
       <c r="D464" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="465">
@@ -6933,7 +6933,7 @@
         <v>Fiyatın sınırlandırılması gerekiyordu.</v>
       </c>
       <c r="D466" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="467">
@@ -6947,7 +6947,7 @@
         <v>Kocam, çiçeklerle ilgilenmeme izin vermekten mutluluk duyuyor, o da çimi tam istediği gibi bakımını yapıyor.</v>
       </c>
       <c r="D467" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="468">
@@ -6989,7 +6989,7 @@
         <v>Parti, onun en kısa sürede ayrılmasını istiyor.</v>
       </c>
       <c r="D470" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="471">
@@ -7003,7 +7003,7 @@
         <v>Yemek yememe kararı aldım.</v>
       </c>
       <c r="D471" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="472">
@@ -7031,7 +7031,7 @@
         <v>Clinton için yalan söylemeye istekli hiçbir ajan yoktu.</v>
       </c>
       <c r="D473" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="474">
@@ -7059,7 +7059,7 @@
         <v>Fonksiyonel ve savunucu ihtiyaçlar her zaman uyum içindedir.</v>
       </c>
       <c r="D475" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="476">
@@ -7073,7 +7073,7 @@
         <v>Drew, Shannon'ı ezmek istemedi.</v>
       </c>
       <c r="D476" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="477">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -7087,7 +7087,7 @@
         <v>Aile buluşması sürecini gerçekten kolaylaştırıyorlar.</v>
       </c>
       <c r="D477" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="478">
@@ -7101,7 +7101,7 @@
         <v>Umarım bir gün onu görürüm.</v>
       </c>
       <c r="D478" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="479">
@@ -7115,7 +7115,7 @@
         <v>Bu süre zarfında Bush ailesi benimle hiçbir şekilde ilgilenmek istemedi.</v>
       </c>
       <c r="D479" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="480">
@@ -7129,7 +7129,7 @@
         <v>Bazı fikirleri hatırlamamız gerekiyor..</v>
       </c>
       <c r="D480" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="481">
@@ -7143,7 +7143,7 @@
         <v>Astronom, insanların uzaya gitmelerine rağmen neden kömür ve petrol istediklerini anlamakta zorlandı ve bu karışıklığın nedenlerini sordu.</v>
       </c>
       <c r="D481" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="482">
@@ -7157,7 +7157,7 @@
         <v>GAO ve IG'lerin sağlam ilişkiler kurması gerekiyor.</v>
       </c>
       <c r="D482" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="483">
@@ -7185,7 +7185,7 @@
         <v>Çocuk istiyoruz.</v>
       </c>
       <c r="D484" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="485">
@@ -7199,7 +7199,7 @@
         <v>HRC logosu aracılığıyla biraz umut yaratma arzumuz vardı.</v>
       </c>
       <c r="D485" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="486">
@@ -7213,7 +7213,7 @@
         <v>Ertesi bahar, giriş yolumu tamamen asfaltladım.</v>
       </c>
       <c r="D486" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="487">
@@ -7227,7 +7227,7 @@
         <v>Jackson'a yardım gerekiyor.</v>
       </c>
       <c r="D487" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="488">
@@ -7241,7 +7241,7 @@
         <v>İkinci aşama 17. yüzyılın sonunda planlandı.</v>
       </c>
       <c r="D488" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="489">
@@ -7269,7 +7269,7 @@
         <v>Makaleyi dergide okudum.</v>
       </c>
       <c r="D490" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="491">
@@ -7283,7 +7283,7 @@
         <v>Gilder'ın teknik yazı yazmak için hiçbir mazerete ihtiyacı yok.</v>
       </c>
       <c r="D491" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="492">
@@ -7297,7 +7297,7 @@
         <v>İyi liderler, bir organizasyonun değişime karşı direncini aşmasına yardımcı olabilir.</v>
       </c>
       <c r="D492" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="493">
@@ -7311,7 +7311,7 @@
         <v>Sürekli kurulum gerektirir ve beş dakika içinde doğru çalışır.</v>
       </c>
       <c r="D493" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="494">
@@ -7325,7 +7325,7 @@
         <v>Bilgili olmanın gücünü biliyorlardı.</v>
       </c>
       <c r="D494" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="495">
@@ -7339,7 +7339,7 @@
         <v>Ofisinin nerede olduğunu bulmak zordu.</v>
       </c>
       <c r="D495" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="496">
@@ -7367,7 +7367,7 @@
         <v>Zamana ihtiyacı var.</v>
       </c>
       <c r="D497" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="498">
@@ -7381,7 +7381,7 @@
         <v>Sakinler, postalarını sabah 8:00'de almak istediler.</v>
       </c>
       <c r="D498" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="499">
@@ -7395,7 +7395,7 @@
         <v>Hindu oldukları için Nehru'nun Kongre Partisi sosyalistler tarafından yönetiliyordu.</v>
       </c>
       <c r="D499" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="500">
@@ -7409,7 +7409,7 @@
         <v>Cynthia çime alerjisi vardı ve ona dokunmuyordu.</v>
       </c>
       <c r="D500" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="501">
@@ -7437,7 +7437,7 @@
         <v>Fridlund-Hume, doğru görünmeye fazla çabalamak konusunda uyardı.</v>
       </c>
       <c r="D502" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="503">
@@ -7451,7 +7451,7 @@
         <v>Sovyetler Birliği'nde, tek bir ülkede bir arada var olmaya çalışan birçok farklı kültür bulunmaktadır.</v>
       </c>
       <c r="D503" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="504">
@@ -7465,7 +7465,7 @@
         <v>Maalesef evden çalışırken istediğim her şeyi giyemiyorum.</v>
       </c>
       <c r="D504" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="505">
@@ -7479,7 +7479,7 @@
         <v>İstediğin seçimleri yapma özgürlüğüne sahip olmanı istiyorum.</v>
       </c>
       <c r="D505" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="506">
@@ -7493,7 +7493,7 @@
         <v>Ancak, ana taş döşeli sokakları takip etmeniz gerekiyor.</v>
       </c>
       <c r="D506" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="507">
@@ -7521,7 +7521,7 @@
         <v>Dahil edilen quiz, tıbbi sorunları teşhis etmek için kullanılabilir.</v>
       </c>
       <c r="D508" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="509">
@@ -7535,7 +7535,7 @@
         <v>heyecana dahil olmak istiyorum</v>
       </c>
       <c r="D509" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="510">
@@ -7549,7 +7549,7 @@
         <v>Başkan, misyonun gücünü korumak istiyor.</v>
       </c>
       <c r="D510" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="511">
@@ -7563,7 +7563,7 @@
         <v>Berman, ruhsal bir yolculukta okyanusu aşar.</v>
       </c>
       <c r="D511" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="512">
@@ -7577,7 +7577,7 @@
         <v>Ona bunu söylememesini istiyorum.</v>
       </c>
       <c r="D512" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="513">
@@ -7591,7 +7591,7 @@
         <v>Emily'yi istediğim gibi olmaya zorlayacağım.</v>
       </c>
       <c r="D513" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="514">
@@ -7605,7 +7605,7 @@
         <v>70'lerdeki pro-seçim yanlıları, ortaya çıkan feminist hareketle ilişkilendirilmek istemiyorlardı.</v>
       </c>
       <c r="D514" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="515">
@@ -7619,7 +7619,7 @@
         <v>Başarılı olmak için bir yöntem kullanması gerekmediği açıktır.</v>
       </c>
       <c r="D515" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="516">
@@ -7633,7 +7633,7 @@
         <v>Üçüncü kat kemerleri iyi bir şekilde görebilmek için dürbün gereklidir.</v>
       </c>
       <c r="D516" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="517">
@@ -7647,7 +7647,7 @@
         <v>Gerçekten o suçu işlemesini mi istiyorsun?</v>
       </c>
       <c r="D517" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="518">
@@ -7661,7 +7661,7 @@
         <v>"Onun gerçek, hoş doğasını takdir edemeyenlere yiyecek satmak istemiyorum," diye yanıtladı.</v>
       </c>
       <c r="D518" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="519">
@@ -7675,7 +7675,7 @@
         <v>Tokyo'nun yeniden inşası kötü planlandı.</v>
       </c>
       <c r="D519" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="520">
@@ -7703,7 +7703,7 @@
         <v>İlk web sitesi işlevi sizi ana sayfaya yönlendirir.</v>
       </c>
       <c r="D521" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="522">
@@ -7717,7 +7717,7 @@
         <v>Ryerson, çevre koruma için daha sıkı yasalara ihtiyaç olduğunu düşünüyor.</v>
       </c>
       <c r="D522" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="523">
@@ -7731,7 +7731,7 @@
         <v>Yoksulluk içindeki gençlerin çocuk sahibi olmalarını engelleyecek önlemler almalarını istedi.</v>
       </c>
       <c r="D523" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="524">
@@ -7745,7 +7745,7 @@
         <v>Evimin boyanması için teklifler alıyorum.</v>
       </c>
       <c r="D524" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="525">
@@ -7759,7 +7759,7 @@
         <v>Ek bir gelire ihtiyaçları vardı.</v>
       </c>
       <c r="D525" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="526">
@@ -7787,7 +7787,7 @@
         <v>Adının Antonio olduğunu biliyorum, kendini tekrar etmene gerek yok.</v>
       </c>
       <c r="D527" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="528">
@@ -7801,7 +7801,7 @@
         <v>Donovan Olson, geçen Aralık ayında ilçe Denetim Kurulu başkanı olarak atanmıştır.</v>
       </c>
       <c r="D528" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="529">
@@ -7815,7 +7815,7 @@
         <v>Gerçek Bay Brown'u görmek istiyorum.</v>
       </c>
       <c r="D529" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="530">
@@ -7829,7 +7829,7 @@
         <v>Sıcaklıklar düşecek.</v>
       </c>
       <c r="D530" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="531">
@@ -7843,7 +7843,7 @@
         <v>Fieldstone, icra sorununa uygulanabilir bir çözüm bulmak istiyor.</v>
       </c>
       <c r="D531" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="532">
@@ -7857,7 +7857,7 @@
         <v>Evdeki birden fazla odayı yeniden dekore etmemiz gerekiyordu.</v>
       </c>
       <c r="D532" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="533">
@@ -7871,7 +7871,7 @@
         <v>PC'lerle daha fazla deneyimim olduğu için yükün büyük kısmını üstlendim.</v>
       </c>
       <c r="D533" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="534">
@@ -7885,7 +7885,7 @@
         <v>Koca ona Orshe'yi park etmesi için anahtarları verdi.</v>
       </c>
       <c r="D534" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="535">
@@ -7899,7 +7899,7 @@
         <v>Bu görevleri dersten sonra erteleyebilirim.</v>
       </c>
       <c r="D535" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="536">
@@ -7913,7 +7913,7 @@
         <v>Kuzey ve güney ticaret bölgeleri oluşturulmayacaktır.</v>
       </c>
       <c r="D536" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="537">
@@ -7927,7 +7927,7 @@
         <v>Maxim Oteli'nin yenilenmesi gerekiyor.</v>
       </c>
       <c r="D537" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="538">
@@ -7941,7 +7941,7 @@
         <v>OPEC, ekonomi konusunda endişeli.</v>
       </c>
       <c r="D538" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="539">
@@ -7955,7 +7955,7 @@
         <v>Senato bu tasarı üzerinde asla harekete geçmeyecek.</v>
       </c>
       <c r="D539" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="540">
@@ -7969,7 +7969,7 @@
         <v>Yönetimin hedefi, tüketicilerin ihtiyaçlarını karşılayan yeni ürünler ve hizmetler yaratmaktır.</v>
       </c>
       <c r="D540" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="541">
@@ -7983,7 +7983,7 @@
         <v>Terörle savaşın önemini savunmak istiyorlar.</v>
       </c>
       <c r="D541" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="542">
@@ -7997,7 +7997,7 @@
         <v>Benim gelin arkadaşım bile olmasını istemiyorum.</v>
       </c>
       <c r="D542" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="543">
@@ -8011,7 +8011,7 @@
         <v>Bu savaşın ekonomik sonuçları muazzamdır.</v>
       </c>
       <c r="D543" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="544">
@@ -8025,7 +8025,7 @@
         <v>Amerika'ya gitmek istemiyordu ama kendi ülkesinde kalmaktan korkuyordu.</v>
       </c>
       <c r="D544" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="545">
@@ -8039,7 +8039,7 @@
         <v>Ne yapacağını anlamaya çalışıyorsun.</v>
       </c>
       <c r="D545" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="546">
@@ -8053,7 +8053,7 @@
         <v>Özgürlüğün bedeli, istediğin şeyi yapma özgürlüğüdür.</v>
       </c>
       <c r="D546" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="547">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -8067,7 +8067,7 @@
         <v>İstediğin her şeyi yapabilirsin.</v>
       </c>
       <c r="D547" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="548">
@@ -8081,7 +8081,7 @@
         <v>Bilgiyi almak istiyordu.</v>
       </c>
       <c r="D548" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="549">
@@ -8095,7 +8095,7 @@
         <v>Okul yönetiminden yardım almak iyi bir fikirdir.</v>
       </c>
       <c r="D549" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="550">
@@ -8109,7 +8109,7 @@
         <v>Konuşma, muhabirin ilgi alanı olan konu üzerindeydi.</v>
       </c>
       <c r="D550" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="551">
@@ -8123,7 +8123,7 @@
         <v>Roman, kendi evinde istenmeyen bir kadını konu alıyor.</v>
       </c>
       <c r="D551" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="552">
@@ -8137,7 +8137,7 @@
         <v>Okul yeni bir konferans salonu inşa ediyor.</v>
       </c>
       <c r="D552" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="553">
@@ -8151,7 +8151,7 @@
         <v>Mağdur suçu bildirmek istemiyor.</v>
       </c>
       <c r="D553" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="554">
@@ -8165,7 +8165,7 @@
         <v>Hükümet, sağlık hizmetleri için bir sistem oluşturmak istiyor.</v>
       </c>
       <c r="D554" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="555">
@@ -8179,7 +8179,7 @@
         <v>Çocuklarımıza ilaç vermeyi biliyor muyuz?</v>
       </c>
       <c r="D555" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="556">
@@ -8193,7 +8193,7 @@
         <v>İstedikleri her şeyi yapma fırsatına sahiptiler.</v>
       </c>
       <c r="D556" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="557">
@@ -8207,7 +8207,7 @@
         <v>Avukatlar, yoksullara yardım etme konusunda büyük bir fırsata sahiptir.</v>
       </c>
       <c r="D557" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="558">
@@ -8221,7 +8221,7 @@
         <v>1992 tarihli Federal Enerji Politikası Yasası 2005 yılında iptal edildi.</v>
       </c>
       <c r="D558" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="559">
@@ -8235,7 +8235,7 @@
         <v>Buradasın.</v>
       </c>
       <c r="D559" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="560">
@@ -8249,7 +8249,7 @@
         <v>Perakende hizmetlerinin sözleşmelere ihtiyacı vardır.</v>
       </c>
       <c r="D560" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="561">
@@ -8263,7 +8263,7 @@
         <v>Nolte, avukat olmak istemediğini söyledi.</v>
       </c>
       <c r="D561" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="562">
@@ -8277,7 +8277,7 @@
         <v>Devlet satılık.</v>
       </c>
       <c r="D562" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="563">
@@ -8291,7 +8291,7 @@
         <v>Bilim insanları, politika yapıcıların ne yaptığını bilmek istiyor.</v>
       </c>
       <c r="D563" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="564">
@@ -8319,7 +8319,7 @@
         <v>Onun ruh halindeki değişiklik arkadaşlarından kaynaklanıyordu.</v>
       </c>
       <c r="D565" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="566">
@@ -8333,7 +8333,7 @@
         <v>Siyasi partiler arasında tek ödemeli sağlık sistemi gerekliliği konusunda önemli bir anlaşmazlık bulunmaktadır.</v>
       </c>
       <c r="D566" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="567">
@@ -8347,7 +8347,7 @@
         <v>Gerçek bir sorununuz var.</v>
       </c>
       <c r="D567" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="568">
@@ -8375,7 +8375,7 @@
         <v>Sana ne yaptığımı söyleyemem.</v>
       </c>
       <c r="D569" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="570">
@@ -8389,7 +8389,7 @@
         <v>Kadın ne istediğini bilmiyor.</v>
       </c>
       <c r="D570" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="571">
@@ -8403,7 +8403,7 @@
         <v>Her zaman haklı olmak ister.</v>
       </c>
       <c r="D571" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="572">
@@ -8417,7 +8417,7 @@
         <v>Yeni program, sorunu çözmek için gereklidir.</v>
       </c>
       <c r="D572" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="573">
@@ -8431,7 +8431,7 @@
         <v>Kalmak ister misin?</v>
       </c>
       <c r="D573" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="574">
@@ -8445,7 +8445,7 @@
         <v>Polis gücü, yasaların işlemesi için gereklidir.</v>
       </c>
       <c r="D574" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="575">
@@ -8459,7 +8459,7 @@
         <v>Hükümet, halkın istediği şeyi yapmadı.</v>
       </c>
       <c r="D575" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="576">
@@ -8473,7 +8473,7 @@
         <v>Bölge, buraya gelmek isteyen insanları çekecek.</v>
       </c>
       <c r="D576" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="577">
@@ -8487,7 +8487,7 @@
         <v>Zengin olmaya çalışıyor.</v>
       </c>
       <c r="D577" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="578">
@@ -8501,7 +8501,7 @@
         <v>Savaş başlatmayacaktı.</v>
       </c>
       <c r="D578" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="579">
@@ -8515,7 +8515,7 @@
         <v>Dr. Livingston ondan hoşlanmıyordu.</v>
       </c>
       <c r="D579" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="580">
@@ -8529,7 +8529,7 @@
         <v>Yeni bir girişime ihtiyaç var.</v>
       </c>
       <c r="D580" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="581">
@@ -8543,7 +8543,7 @@
         <v>Oyuncuların isimlerini bilmelisin.</v>
       </c>
       <c r="D581" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="582">
@@ -8557,7 +8557,7 @@
         <v>İnsanların iyi bir eğitim alması gerekiyor.</v>
       </c>
       <c r="D582" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="583">
@@ -8571,7 +8571,7 @@
         <v>Sistemin diğer bileşenlerinin maliyetlerini de göz önünde bulundurmamız gerekiyor.</v>
       </c>
       <c r="D583" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="584">
@@ -8585,7 +8585,7 @@
         <v>Ne yapmak istediğine karar verdi.</v>
       </c>
       <c r="D584" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="585">
@@ -8599,7 +8599,7 @@
         <v>Hükümetin ekonomiyle ilgili bir şeyler yapması gerekiyor.</v>
       </c>
       <c r="D585" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="586">
@@ -8613,7 +8613,7 @@
         <v>O çok ahlaklı bir insandır.</v>
       </c>
       <c r="D586" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="587">
@@ -8641,7 +8641,7 @@
         <v>ABD hükümeti, bilginin serbestçe akmasına izin vermek istiyor.</v>
       </c>
       <c r="D588" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="589">
@@ -8655,7 +8655,7 @@
         <v>Gölde olmak için bir izin almanıza gerek yok.</v>
       </c>
       <c r="D589" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="590">
@@ -8669,7 +8669,7 @@
         <v>Konu hakkında kapsamlı bir literatür incelemesine ihtiyaç vardır.</v>
       </c>
       <c r="D590" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="591">
@@ -8697,7 +8697,7 @@
         <v>Enerji arzını çeşitlendirmek, enerji güvenliği için önemlidir.</v>
       </c>
       <c r="D592" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="593">
@@ -8711,7 +8711,7 @@
         <v>Miss Paget, John'un şanslı olduğunu söylemek istedi.</v>
       </c>
       <c r="D593" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="594">
@@ -8725,7 +8725,7 @@
         <v>Yerel okul kurulunun başkanı, istediğini yapma pozisyonundadır.</v>
       </c>
       <c r="D594" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="595">
@@ -8739,7 +8739,7 @@
         <v>Bir tartışma yapılması gerekiyor.</v>
       </c>
       <c r="D595" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="596">
@@ -8753,7 +8753,7 @@
         <v>Dothraki, Qarth şehrine saldırmak istiyor.</v>
       </c>
       <c r="D596" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="597">
@@ -8767,7 +8767,7 @@
         <v>Bununla ilgili yapılması gereken bir şey var.</v>
       </c>
       <c r="D597" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="598">
@@ -8781,7 +8781,7 @@
         <v>Yeni takım, antrenörün yapmaya çalıştığı şeye bağlıdır.</v>
       </c>
       <c r="D598" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="599">
@@ -8795,7 +8795,7 @@
         <v>Onunla o kadar gergin olmadığımda daha açık oldum.</v>
       </c>
       <c r="D599" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="600">
@@ -8809,7 +8809,7 @@
         <v>Organizasyonda değişiklik gereklidir.</v>
       </c>
       <c r="D600" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="601">
@@ -8823,7 +8823,7 @@
         <v>Test güvenilir değil.</v>
       </c>
       <c r="D601" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="602" xml:space="preserve">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -8845,7 +8845,7 @@
         <v>Murray balık evinden iki Fransız Kanadalı daha sürünerek geldi.</v>
       </c>
       <c r="D602" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="603">
@@ -8859,7 +8859,7 @@
         <v>Kamusal alanda öpüşmek, bir ebeveyn figürünün rızasını gerektirir.</v>
       </c>
       <c r="D603" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="604">
@@ -8873,7 +8873,7 @@
         <v>Andrea von Habsburg, ailesindeki en büyük çocuktur.</v>
       </c>
       <c r="D604" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="605">
@@ -8887,7 +8887,7 @@
         <v>Ulusal Park Trust, 20'den fazla yüksek öncelikli alanda arazi satışa çıkardı.</v>
       </c>
       <c r="D605" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="606">
@@ -8901,7 +8901,7 @@
         <v>Terraryumlar plastik veya camdan yapılmalıdır.</v>
       </c>
       <c r="D606" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="607">
@@ -8915,7 +8915,7 @@
         <v>Nehir kenarındaki erozyonu durdurmak için yapılan malzeme biyolojik olarak parçalanabilir değildir.</v>
       </c>
       <c r="D607" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="608">
@@ -8929,7 +8929,7 @@
         <v>Donald Conroy 67 yaşında hayatını kaybetti.</v>
       </c>
       <c r="D608" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="609">
@@ -8943,7 +8943,7 @@
         <v>Amerikan alternatif rock grubu 10,000 Maniacs ile müzik derlemenin yanı sıra, Mary Ramsey folk rock ikilisi John &amp; Mary'nin bir üyesi olarak da değerlendirilmelidir.</v>
       </c>
       <c r="D609" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="610">
@@ -8971,7 +8971,7 @@
         <v>Bir valdez, dik oturmanızı gerektirir.</v>
       </c>
       <c r="D611" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="612">
@@ -8985,7 +8985,7 @@
         <v>Konuşmacı ikinci dönemindedir.</v>
       </c>
       <c r="D612" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="613" xml:space="preserve">
@@ -9002,7 +9002,7 @@
         <v>Janet bir amca.</v>
       </c>
       <c r="D613" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="614">
@@ -9016,7 +9016,7 @@
         <v>Abia Eyaletinin valisi aynı zamanda başkandır.</v>
       </c>
       <c r="D614" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="615">
@@ -9030,7 +9030,7 @@
         <v>Walter Murray, bunun aptalca bir saldırı olduğunu söyledi.</v>
       </c>
       <c r="D615" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="616">
@@ -9044,7 +9044,7 @@
         <v>Sınırsız deniz sigortası bireylere değil, yalnızca ticari gemilere sunulmaktadır.</v>
       </c>
       <c r="D616" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="617">
@@ -9058,7 +9058,7 @@
         <v>Constance, konuşmaya veya konuya ilgi göstermiyordu.</v>
       </c>
       <c r="D617" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="618">
@@ -9072,7 +9072,7 @@
         <v>İrritabl Bağırsak Sendromu (İBS) hastaları sadece su içmelidir.</v>
       </c>
       <c r="D618" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="619">
@@ -9086,7 +9086,7 @@
         <v>Yeni Gün, Jamaikalı yazar V. S. Reid'in 1949 yılında yazdığı bir kitaptır. 46 yıldan fazla bir süredir var.</v>
       </c>
       <c r="D619" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="620">
@@ -9100,7 +9100,7 @@
         <v>Antlaşma oylaması 25 ile 30 yaş arasındadır.</v>
       </c>
       <c r="D620" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="621">
@@ -9114,7 +9114,7 @@
         <v>Albüm D harfiyle başlıyor.</v>
       </c>
       <c r="D621" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="622">
@@ -9128,7 +9128,7 @@
         <v>Ed Eagan, aktif kadroda yer aldı.</v>
       </c>
       <c r="D622" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="623">
@@ -9156,7 +9156,7 @@
         <v>Saç ürünü ucuz değil.</v>
       </c>
       <c r="D624" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="625">
@@ -9170,7 +9170,7 @@
         <v>Pearse doğal nedenlerden öldü.</v>
       </c>
       <c r="D625" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="626">
@@ -9184,7 +9184,7 @@
         <v>cilt kanseri ozon tabakası ile ilişkilidir</v>
       </c>
       <c r="D626" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="627">
@@ -9198,7 +9198,7 @@
         <v>Dermal dolgu enfeksiyonları iltihap ile birlikte olabilir.</v>
       </c>
       <c r="D627" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="628">
@@ -9212,7 +9212,7 @@
         <v>Big Data, Joywave tarafından oluşturulan bir projeydi.</v>
       </c>
       <c r="D628" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="629">
@@ -9226,7 +9226,7 @@
         <v>MSK ağrısını cerrahi olarak tedavi etmek için öncelikle kasları dinlendirin.</v>
       </c>
       <c r="D629" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="630">
@@ -9254,7 +9254,7 @@
         <v>ameliyat bir cerrah tarafından yapılır</v>
       </c>
       <c r="D631" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="632">
@@ -9268,7 +9268,7 @@
         <v>Çoğu insan "Oh My" şarkısını duymamıştır.</v>
       </c>
       <c r="D632" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="633">
@@ -9296,7 +9296,7 @@
         <v>Belediye ve comune aynı şeyi ifade eder.</v>
       </c>
       <c r="D634" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="635">
@@ -9310,7 +9310,7 @@
         <v>Kate Moss kendi saç ürünü serisini başlattı.</v>
       </c>
       <c r="D635" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="636">
@@ -9324,7 +9324,7 @@
         <v>Dizi, emekli bir caz müzisyeni olan Jackie Evans hakkında idi.</v>
       </c>
       <c r="D636" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="637">
@@ -9338,7 +9338,7 @@
         <v>William Thomas Harris, Duguayville için sol elle vuran Kanadalı bir atıcıydı.</v>
       </c>
       <c r="D637" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="638">
@@ -9352,7 +9352,7 @@
         <v>Kek üzerine şekerlemeler eklenmelidir.</v>
       </c>
       <c r="D638" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="639">
@@ -9366,7 +9366,7 @@
         <v>Blue Ridge Parkway, Kuzey Carolina ve Virginia'dadır.</v>
       </c>
       <c r="D639" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="640">
@@ -9380,7 +9380,7 @@
         <v>Gent Cenaze Evi, John'un ölümünden sorumludur.</v>
       </c>
       <c r="D640" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="641">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -9394,7 +9394,7 @@
         <v>Grevin teslimat gecikmelerine neden olacak.</v>
       </c>
       <c r="D641" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="642">
@@ -9408,7 +9408,7 @@
         <v>Alt komite, 1999 baharında 4 seyahat yapacak.</v>
       </c>
       <c r="D642" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="643">
@@ -9422,7 +9422,7 @@
         <v>Paydaları çarpın.</v>
       </c>
       <c r="D643" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="644">
@@ -9436,7 +9436,7 @@
         <v>Birisi Donald Rickles'ın hayatı hakkında bir hikaye yazacak.</v>
       </c>
       <c r="D644" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="645">
@@ -9450,7 +9450,7 @@
         <v>Adelphia, Amerika Birleşik Devletleri'nde neredeyse 5 milyon abone ile dokuzuncu en büyük kablo hizmeti sağlayıcısı değildir.</v>
       </c>
       <c r="D645" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="646">
@@ -9464,7 +9464,7 @@
         <v>Payları toplayın.</v>
       </c>
       <c r="D646" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="647">
@@ -9478,7 +9478,7 @@
         <v>Ilse von Glatz gerçek hayatta bir savunucuydu.</v>
       </c>
       <c r="D647" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="648">
@@ -9492,7 +9492,7 @@
         <v>McGillis kararı, onların itibarını zedeledi.</v>
       </c>
       <c r="D648" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="649">
@@ -9520,7 +9520,7 @@
         <v>Dani, intihar önleme hattında gönüllü olarak birinin farklı bir seçim yapmasına yardımcı oldu.</v>
       </c>
       <c r="D650" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="651">
@@ -9534,7 +9534,7 @@
         <v>Üniversite futbolu all-star oyunu oyuncuları Doğu-Batı Shrine Oyununda oynar.</v>
       </c>
       <c r="D651" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="652">
@@ -9548,7 +9548,7 @@
         <v>Thomas Ryan 2008 yılında 52 yaşındaydı.</v>
       </c>
       <c r="D652" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="653">
@@ -9562,7 +9562,7 @@
         <v>Dani bunun ne kadar zor olabileceğini biliyordu.</v>
       </c>
       <c r="D653" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="654">
@@ -9576,7 +9576,7 @@
         <v>Yetkililer bunun bir cinayet olduğu sonucuna varmadı.</v>
       </c>
       <c r="D654" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="655">
@@ -9590,7 +9590,7 @@
         <v>Henry, makineyi icat ettikten 7 yıl sonra öldü.</v>
       </c>
       <c r="D655" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="656">
@@ -9604,7 +9604,7 @@
         <v>Selma Diamond 60 yaşında hayatını kaybetti.</v>
       </c>
       <c r="D656" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="657">
@@ -9632,7 +9632,7 @@
         <v>Rusya Amerika'yı dinliyor.</v>
       </c>
       <c r="D658" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="659">
@@ -9646,7 +9646,7 @@
         <v>Steven Chealander, Ulusal Ulaşım Güvenliği Kurulu'nda çalışmaktadır.</v>
       </c>
       <c r="D659" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="660">
@@ -9660,7 +9660,7 @@
         <v>All-Star maçı, kolej futbolunun sezon sonrası döneminden sonra oynanır.</v>
       </c>
       <c r="D660" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="661">
@@ -9674,7 +9674,7 @@
         <v>Eğitim sistemi derinlemesine kusurludur ve hiçbir çocuk geride bırakılmamalıdır.</v>
       </c>
       <c r="D661" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="662">
@@ -9688,7 +9688,7 @@
         <v>Baby Boomer'lar, ev fiyatlarının fırlamasından sorumlu tutuluyor.</v>
       </c>
       <c r="D662" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="663">
@@ -9702,7 +9702,7 @@
         <v>Hank iki gün önce diş dolgusunu yaptırdı.</v>
       </c>
       <c r="D663" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="664">
@@ -9716,7 +9716,7 @@
         <v>Tampa takımı, 1991 seçim sürecinin 4. turunda Erickson'ı seçti.</v>
       </c>
       <c r="D664" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="665">
@@ -9730,7 +9730,7 @@
         <v>Wecta'nın oğlu Witta, lüt dinlemeyi sever.</v>
       </c>
       <c r="D665" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="666">
@@ -9744,7 +9744,7 @@
         <v>Su ana borusundaki patlama önlenebilirdi.</v>
       </c>
       <c r="D666" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="667">
@@ -9772,7 +9772,7 @@
         <v>Kota Ramakrishna Karanth, Nisan'dan sonra doğmuştur.</v>
       </c>
       <c r="D668" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="669">
@@ -9786,7 +9786,7 @@
         <v>Meslektaşım, sınırda iyi olan bazı önerilen değişiklikleri kabul edebileceğimizi de belirtti.</v>
       </c>
       <c r="D669" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="670">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -9800,7 +9800,7 @@
         <v>Blue Ridge Parkway özel taraflara satılmıştır.</v>
       </c>
       <c r="D670" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="671">
@@ -9814,7 +9814,7 @@
         <v>Konuşmacı, Sara'nın gözlerinin rengini biliyor.</v>
       </c>
       <c r="D671" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="672">
@@ -9828,7 +9828,7 @@
         <v>Özel taraflar, Ulusal Park Vakfı'ndan arazi satın almakla ilgileniyor.</v>
       </c>
       <c r="D672" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="673">
@@ -9842,7 +9842,7 @@
         <v>Manson 74. maçı oynamayacak.</v>
       </c>
       <c r="D673" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="674">
@@ -9856,7 +9856,7 @@
         <v>ABC, Lost dizisini en az 6 sezon boyunca yayınladı.</v>
       </c>
       <c r="D674" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="675">
@@ -9870,7 +9870,7 @@
         <v>İrritabl Bağırsak Sendromu (IBS) ve Gastroözofageal Reflü Hastalığı (GERD) için tetikleyici yiyecekleri bilmek ve bunlardan kaçınmak önemlidir, çünkü her iki durum da benzer koşullara sahiptir.</v>
       </c>
       <c r="D675" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="676">
@@ -9884,7 +9884,7 @@
         <v>Ira Heiden'ın ilk film rolü 1987'deydi.</v>
       </c>
       <c r="D676" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="677">
@@ -9898,7 +9898,7 @@
         <v>Florida'daki emlakçılar kötü niyetle hareket edemez ancak müşterilerini temsil ederken etkisiz olabilirler.</v>
       </c>
       <c r="D677" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="678">
@@ -9912,7 +9912,7 @@
         <v>Bilim danışma kurulu denetleniyor.</v>
       </c>
       <c r="D678" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="679">
@@ -9926,7 +9926,7 @@
         <v>Solucanlar köpek dışkısı ile enfekte olur.</v>
       </c>
       <c r="D679" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="680">
@@ -9940,7 +9940,7 @@
         <v>Rahul Gandhi gerçekten Narendra Modi'yi seviyor.</v>
       </c>
       <c r="D680" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="681">
@@ -9954,7 +9954,7 @@
         <v>Cooper–Frost–Austin Evi, Mayıs ayının başlarında özel turlar sunmaktadır.</v>
       </c>
       <c r="D681" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="682">
@@ -9968,7 +9968,7 @@
         <v>Öğle öncesi saatlerde geldi.</v>
       </c>
       <c r="D682" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="683">
@@ -9982,7 +9982,7 @@
         <v>Perdition Ekseni, bir Koreli pop grubudur.</v>
       </c>
       <c r="D683" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="684">
@@ -9996,7 +9996,7 @@
         <v>Başpiskoposlar, kilisenin diğer üyeleriyle aynı şekilde muamele görmelidir.</v>
       </c>
       <c r="D684" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="685">
@@ -10010,7 +10010,7 @@
         <v>Ratatouille arabada oynatılabilir.</v>
       </c>
       <c r="D685" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="686">
@@ -10024,7 +10024,7 @@
         <v>Geri döndüklerinde tüm çocukların hasta olacağından korkuyorlardı.</v>
       </c>
       <c r="D686" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="687">
@@ -10038,7 +10038,7 @@
         <v>Bir şiirin kafiyeleri olmalıdır.</v>
       </c>
       <c r="D687" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="688">
@@ -10052,7 +10052,7 @@
         <v>Ethan otları aynı bahçede yetiştirebilirdi.</v>
       </c>
       <c r="D688" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="689">
@@ -10066,7 +10066,7 @@
         <v>Associated Press bu duyuruyu yazdı.</v>
       </c>
       <c r="D689" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="690">
@@ -10080,7 +10080,7 @@
         <v>Orson Welles bir yapımcıydı.</v>
       </c>
       <c r="D690" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="691">
@@ -10094,7 +10094,7 @@
         <v>Joey Graceffa bir bilgisayar mühendisidir.</v>
       </c>
       <c r="D691" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="692">
@@ -10108,7 +10108,7 @@
         <v>Radiohead'in yayımlanan üç albümü var.</v>
       </c>
       <c r="D692" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="693">
@@ -10122,7 +10122,7 @@
         <v>Venom genellikle Spiderman ile bağlantılıdır.</v>
       </c>
       <c r="D693" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="694">
@@ -10136,7 +10136,7 @@
         <v>Marilyn Burns bir eskrimciydi.</v>
       </c>
       <c r="D694" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="695">
@@ -10150,7 +10150,7 @@
         <v>Jim Henson bir şarkıcıydı.</v>
       </c>
       <c r="D695" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="696">
@@ -10164,7 +10164,7 @@
         <v>Karan Johar bir başkandır.</v>
       </c>
       <c r="D696" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="697">
@@ -10178,7 +10178,7 @@
         <v>Orson Welles bir tiyatrocu idi.</v>
       </c>
       <c r="D697" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="698">
@@ -10192,7 +10192,7 @@
         <v>Clint Eastwood müzik icra ediyor.</v>
       </c>
       <c r="D698" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="699">
@@ -10206,7 +10206,7 @@
         <v>Kraliçe Victoria bir ülkenin kraliçesiydi.</v>
       </c>
       <c r="D699" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="700">
@@ -10220,7 +10220,7 @@
         <v>Warm Leatherette bir kadın tarafından yapılmıştır.</v>
       </c>
       <c r="D700" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="701">
@@ -10234,7 +10234,7 @@
         <v>X-Men: Geçmiş Günler Gelecek, 2010'dan sonra çıktı.</v>
       </c>
       <c r="D701" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="702">
@@ -10248,7 +10248,7 @@
         <v>Jordan Knight bir film aktörüdür.</v>
       </c>
       <c r="D702" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="703">
@@ -10262,7 +10262,7 @@
         <v>Minnesota Fransa'dadır.</v>
       </c>
       <c r="D703" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="704">
@@ -10276,7 +10276,7 @@
         <v>Huntington hastalığı kalıtsal olabilen bir bozukluktur.</v>
       </c>
       <c r="D704" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="705">
@@ -10290,7 +10290,7 @@
         <v>Sue Sylvester yalnızca bir erkek aktör tarafından canlandırılmaktadır.</v>
       </c>
       <c r="D705" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="706">
@@ -10304,7 +10304,7 @@
         <v>Joan Crawford kariyerine bir aktris olarak başladı.</v>
       </c>
       <c r="D706" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="707">
@@ -10318,7 +10318,7 @@
         <v>Leonardo da Vinci, tüm zamanların en büyük ressamlarından biriyle çıkıyor.</v>
       </c>
       <c r="D707" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="708">
@@ -10332,7 +10332,7 @@
         <v>Fred Trump, Aralık 1918'de on üç yaşındaydı.</v>
       </c>
       <c r="D708" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="709">
@@ -10346,7 +10346,7 @@
         <v>Sofia Coppola bir köpüklü şaraptır.</v>
       </c>
       <c r="D709" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="710">
@@ -10360,7 +10360,7 @@
         <v>X-Men (film) kadrosunda Amerikalı aktör ve şarkıcı Ian Mckellen yer almaktadır.</v>
       </c>
       <c r="D710" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="711">
@@ -10374,7 +10374,7 @@
         <v>Newcastle United F.C.'nin en başarılı dönemi Mayıs 1910'da sona erdi.</v>
       </c>
       <c r="D711" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="712">
@@ -10388,7 +10388,7 @@
         <v>Leonardo da Vinci anatomi çalıştı.</v>
       </c>
       <c r="D712" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="713">
@@ -10402,7 +10402,7 @@
         <v>Joey Graceffa, bir anayasa temelinde kurulmuş bir federasyondan oluşan bir cumhuriyetten gelmektedir.</v>
       </c>
       <c r="D713" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="714">
@@ -10416,7 +10416,7 @@
         <v>Glee bir korku komedisidir.</v>
       </c>
       <c r="D714" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="715">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -10430,7 +10430,7 @@
         <v>The Blacklist'in pilot bölümünün yönetmeni, Kennedy yönetimi sırasında doğdu.</v>
       </c>
       <c r="D715" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="716">
@@ -10444,7 +10444,7 @@
         <v>Roman Reigns bir bahçıvan.</v>
       </c>
       <c r="D716" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="717">
@@ -10458,7 +10458,7 @@
         <v>Ted Kennedy, Amerika Birleşik Devletleri senatörüdür.</v>
       </c>
       <c r="D717" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="718">
@@ -10472,7 +10472,7 @@
         <v>Supernatural bir dizidir.</v>
       </c>
       <c r="D718" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="719">
@@ -10486,7 +10486,7 @@
         <v>On İkinci Doktor, bir Britanya televizyon programındadır.</v>
       </c>
       <c r="D719" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="720">
@@ -10500,7 +10500,7 @@
         <v>Jack Paar, 21. yüzyılda bir tarihte vefat etti.</v>
       </c>
       <c r="D720" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="721">
@@ -10514,7 +10514,7 @@
         <v>Maymunlar Cehennemi filmindeki sahne dizileri Özgürlük Heykeli çevresinde ve içinde.</v>
       </c>
       <c r="D721" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="722">
@@ -10528,7 +10528,7 @@
         <v>One More Light, CBS aracılığıyla yayımlandı.</v>
       </c>
       <c r="D722" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="723">
@@ -10542,7 +10542,7 @@
         <v>Wentworth, televizyonda tek bir bölüm.</v>
       </c>
       <c r="D723" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="724">
@@ -10556,7 +10556,7 @@
         <v>Robert Browning, Rus İmparatorluğu döneminin önde gelen şairlerinden biriydi.</v>
       </c>
       <c r="D724" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="725">
@@ -10570,7 +10570,7 @@
         <v>Audrey Horne, Twin Peaks: The Return'da tanıtıldı.</v>
       </c>
       <c r="D725" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="726">
@@ -10584,7 +10584,7 @@
         <v>Avatar: Son Hava Bükücü'nün ana karakteri Aang'dı.</v>
       </c>
       <c r="D726" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="727">
@@ -10598,7 +10598,7 @@
         <v>Evan Goldberg bir Alman yönetmendir.</v>
       </c>
       <c r="D727" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="728">
@@ -10612,7 +10612,7 @@
         <v>Cindy McCain Amerikalıdır.</v>
       </c>
       <c r="D728" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="729">
@@ -10626,7 +10626,7 @@
         <v>Coldplay, Britanyalı bir gruptur.</v>
       </c>
       <c r="D729" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="730">
@@ -10640,7 +10640,7 @@
         <v>Tim Allen, bir Amerikan şovunda rol aldı.</v>
       </c>
       <c r="D730" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="731">
@@ -10654,7 +10654,7 @@
         <v>Tony Blair, Muhafazakâr Parti'nin lideriydi.</v>
       </c>
       <c r="D731" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="732">
@@ -10668,7 +10668,7 @@
         <v>Heather Watson bir şampiyondur.</v>
       </c>
       <c r="D732" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="733">
@@ -10682,7 +10682,7 @@
         <v>John McCain, Rusya ile diplomatik ilişkileri yeniden kurma çabalarıyla tanınmaktadır.</v>
       </c>
       <c r="D733" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="734">
@@ -10696,7 +10696,7 @@
         <v>Vladimir Putin bir hükümetin Başkanıydı.</v>
       </c>
       <c r="D734" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="735">
@@ -10710,7 +10710,7 @@
         <v>Misafir, Amerikalı film oyuncularını yıldız olarak barındırıyor.</v>
       </c>
       <c r="D735" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="736">
@@ -10724,7 +10724,7 @@
         <v>Timothy Olyphant bir hayvandı.</v>
       </c>
       <c r="D736" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="737">
@@ -10738,7 +10738,7 @@
         <v>Frank Sinatra'nın ikinci ismi Sam'di.</v>
       </c>
       <c r="D737" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="738">
@@ -10752,7 +10752,7 @@
         <v>Sage Stallone bir babaydı.</v>
       </c>
       <c r="D738" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="739">
@@ -10766,7 +10766,7 @@
         <v>Mao Zedong Rus'tu.</v>
       </c>
       <c r="D739" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="740">
@@ -10780,7 +10780,7 @@
         <v>Lee Harvey Oswald, Amerika Birleşik Devletleri'nin 35. Başkanı'nı suikastle öldürdü.</v>
       </c>
       <c r="D740" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="741">
@@ -10794,7 +10794,7 @@
         <v>Gabourey Sidibe, Amerika Birleşik Devletleri vatandaşıdır.</v>
       </c>
       <c r="D741" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="742">
@@ -10808,7 +10808,7 @@
         <v>Glee bir filmdi.</v>
       </c>
       <c r="D742" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="743">
@@ -10822,7 +10822,7 @@
         <v>Tony Blair bir aktördür.</v>
       </c>
       <c r="D743" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="744">
@@ -10836,7 +10836,7 @@
         <v>Anderson Cooper bir kişidir.</v>
       </c>
       <c r="D744" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="745">
@@ -10850,7 +10850,7 @@
         <v>Heather Watson bir annedir.</v>
       </c>
       <c r="D745" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="746">
@@ -10864,7 +10864,7 @@
         <v>George Clooney bir karikatüristtir.</v>
       </c>
       <c r="D746" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="747">
@@ -10878,7 +10878,7 @@
         <v>Avril Lavigne bir müzisyendir.</v>
       </c>
       <c r="D747" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="748">
@@ -10892,7 +10892,7 @@
         <v>Emilio Estevez bir ahırda doğdu.</v>
       </c>
       <c r="D748" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="749">
@@ -10906,7 +10906,7 @@
         <v>Miranda Kerr, Kanadalı bir Victoria's Secret modeliydi.</v>
       </c>
       <c r="D749" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="750">
@@ -10920,7 +10920,7 @@
         <v>Hulk bir yaratım.</v>
       </c>
       <c r="D750" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="751">
@@ -10934,7 +10934,7 @@
         <v>Monica Seles tenis oynadı.</v>
       </c>
       <c r="D751" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="752">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -10444,7 +10444,7 @@
         <v>Roman Reigns bir bahçıvan.</v>
       </c>
       <c r="D716" t="str">
-        <v>Neutral</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="717">
@@ -10948,7 +10948,7 @@
         <v>Penny Dreadful 21. yüzyılda başladı.</v>
       </c>
       <c r="D752" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="753">
@@ -10962,7 +10962,7 @@
         <v>Doug Jones sinema sektöründe çalışıyor.</v>
       </c>
       <c r="D753" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="754">
@@ -10976,7 +10976,7 @@
         <v>Warm Leatherette, Jamaikalı doğumlu bir şarkıcı tarafından söylenmiştir ve 1980 yılında yayımlanmıştır.</v>
       </c>
       <c r="D754" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="755">
@@ -10990,7 +10990,7 @@
         <v>Glee bir televizyon dizisiydi.</v>
       </c>
       <c r="D755" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="756">
@@ -11004,7 +11004,7 @@
         <v>Estella Warren bir İkizler.</v>
       </c>
       <c r="D756" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="757">
@@ -11018,7 +11018,7 @@
         <v>Umutsuz Ev Kadınları bir televizyon dizisidir.</v>
       </c>
       <c r="D757" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="758">
@@ -11032,7 +11032,7 @@
         <v>Eminem bir İkizler burcuydu.</v>
       </c>
       <c r="D758" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="759">
@@ -11046,7 +11046,7 @@
         <v>Thomas DeSimone Haiti'de kayboldu.</v>
       </c>
       <c r="D759" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="760">
@@ -11060,7 +11060,7 @@
         <v>William R. Tolbert Jr. öldürüldü.</v>
       </c>
       <c r="D760" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="761">
@@ -11074,7 +11074,7 @@
         <v>Miranda Cosgrove bir yarış arabası sürücüsüdür.</v>
       </c>
       <c r="D761" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="762">
@@ -11088,7 +11088,7 @@
         <v>Wynonna Judd su aerobikleriyle ilgileniyor.</v>
       </c>
       <c r="D762" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="763">
@@ -11102,7 +11102,7 @@
         <v>Tré Cool, Green Day'in davulcusudur.</v>
       </c>
       <c r="D763" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="764">
@@ -11116,7 +11116,7 @@
         <v>David Schwimmer, Friends dizisindeki rolünü 8 Ekim 2004'te tamamladı.</v>
       </c>
       <c r="D764" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="765">
@@ -11130,7 +11130,7 @@
         <v>Gennady Golovkin bir eskrimcidir.</v>
       </c>
       <c r="D765" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="766">
@@ -11144,7 +11144,7 @@
         <v>Dennis Hopper bir insandı.</v>
       </c>
       <c r="D766" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="767">
@@ -11158,7 +11158,7 @@
         <v>Sage Stallone Çin'de doğdu.</v>
       </c>
       <c r="D767" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="768">
@@ -11172,7 +11172,7 @@
         <v>Laurence Olivier Amerika'daydı.</v>
       </c>
       <c r="D768" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="769">
@@ -11186,7 +11186,7 @@
         <v>Gennady Golovkin bir ahtapot.</v>
       </c>
       <c r="D769" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="770">
@@ -11200,7 +11200,7 @@
         <v>Novak Djokovic bir sporcudur.</v>
       </c>
       <c r="D770" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="771">
@@ -11214,7 +11214,7 @@
         <v>Grace Jones, A View to Kill filminde performans sergiledi.</v>
       </c>
       <c r="D771" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="772">
@@ -11228,7 +11228,7 @@
         <v>Dennis Hopper bir Avustralyalıydı.</v>
       </c>
       <c r="D772" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="773">
@@ -11256,7 +11256,7 @@
         <v>İspanya bir ülkedir.</v>
       </c>
       <c r="D774" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="775">
@@ -11270,7 +11270,7 @@
         <v>Tony Goldwyn bir Alman yapımcıdır.</v>
       </c>
       <c r="D775" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="776">
@@ -11298,7 +11298,7 @@
         <v>Vladimir Putin, 1997'den 2008'e kadar Cumhurbaşkanıydı.</v>
       </c>
       <c r="D777" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="778">
@@ -11312,7 +11312,7 @@
         <v>Seattle, Washington eyaletindeki en büyük şehirdir.</v>
       </c>
       <c r="D778" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="779">
@@ -11326,7 +11326,7 @@
         <v>Andy Kaufman bir canavardı.</v>
       </c>
       <c r="D779" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="780">
@@ -11340,7 +11340,7 @@
         <v>Danny Carey'nin ikinci ismi yoktur.</v>
       </c>
       <c r="D780" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="781">
@@ -11354,7 +11354,7 @@
         <v>Tiger Woods, Palm Springs Davetli Turnuvası'nı kazandı.</v>
       </c>
       <c r="D781" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="782">
@@ -11368,7 +11368,7 @@
         <v>BRIT Okulu 1922'de kuruldu.</v>
       </c>
       <c r="D782" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="783">
@@ -11382,7 +11382,7 @@
         <v>John Wayne Gacy Jr. suçla bağlantılıydı.</v>
       </c>
       <c r="D783" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="784">
@@ -11396,7 +11396,7 @@
         <v>Schutzstaffel'in komutanı Heinrich Himmler'di.</v>
       </c>
       <c r="D784" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="785">
@@ -11410,7 +11410,7 @@
         <v>Fergie'nin "Açık Sözlü" adında bir köpeği var.</v>
       </c>
       <c r="D785" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="786">
@@ -11424,7 +11424,7 @@
         <v>Joey Graceffa, Kaliforniya'nın San Burno şehrinde merkezi bulunan bir web sitesiyle çalıştı.</v>
       </c>
       <c r="D786" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="787">
@@ -11438,7 +11438,7 @@
         <v>The Leftovers, bir aktörü yıldız yapıyor.</v>
       </c>
       <c r="D787" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="788">
@@ -11452,7 +11452,7 @@
         <v>Carmelo Anthony bir futbol takımında oynuyor.</v>
       </c>
       <c r="D788" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="789">
@@ -11466,7 +11466,7 @@
         <v>Tom Felton İkizler burcudur.</v>
       </c>
       <c r="D789" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="790">
@@ -11480,7 +11480,7 @@
         <v>Glee'nin son sezonu 19 Nisan 2013'te sipariş edildi.</v>
       </c>
       <c r="D790" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="791">
@@ -11494,7 +11494,7 @@
         <v>Glee bir filmdi.</v>
       </c>
       <c r="D791" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="792">
@@ -11508,7 +11508,7 @@
         <v>Halkın çocuk velayeti hakkına ilişkin tüm yasalar, ebeveynlerin evli olmasını zorunlu kılar.</v>
       </c>
       <c r="D792" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="793">
@@ -11536,7 +11536,7 @@
         <v>Dexter, "Bir hayalim var" dondurması fikrine güldü.</v>
       </c>
       <c r="D794" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="795">
@@ -11550,7 +11550,7 @@
         <v>Fish, yanlış olabileceğini kabul etti.</v>
       </c>
       <c r="D795" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="796">
@@ -11578,7 +11578,7 @@
         <v>Falwell tarzı Hristiyanlar, İsa'nın Yahudi olduğunu inanıyorlar.</v>
       </c>
       <c r="D797" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="798">
@@ -11592,7 +11592,7 @@
         <v>Onların söylediğine göre, onun bilgisi dikkate alınmaya değmez.</v>
       </c>
       <c r="D798" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="799">
@@ -11606,7 +11606,7 @@
         <v>Richey ve doktor, duruşma sırasında Wynette'a karşı herhangi bir yanlış eylemde bulunduklarını reddetti.</v>
       </c>
       <c r="D799" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="800">
@@ -11620,7 +11620,7 @@
         <v>Okuyucu kitabı sona kadar okumaya devam etti.</v>
       </c>
       <c r="D800" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="801">
@@ -11648,7 +11648,7 @@
         <v>The New Yorker, Europr'dan Mektuplar köşesini durdurdu.</v>
       </c>
       <c r="D802" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="803">
@@ -11662,7 +11662,7 @@
         <v>Adım muhtemelen Pierre LeCluck olabilir.</v>
       </c>
       <c r="D803" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="804">
@@ -11676,7 +11676,7 @@
         <v>Pinbol makineleri kumar için kullanılabilir.</v>
       </c>
       <c r="D804" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="805">
@@ -11704,7 +11704,7 @@
         <v>New Hampshire ve Iowa genellikle insanın düşüncelerini değiştirir.</v>
       </c>
       <c r="D806" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="807">
@@ -11718,7 +11718,7 @@
         <v>Şu anda bu konuda bize yardımcı olabilecek bir dahi var.</v>
       </c>
       <c r="D807" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="808">
@@ -11732,7 +11732,7 @@
         <v>Hiç şüphe yok ki diğer gezegenlerde yaşam var.</v>
       </c>
       <c r="D808" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="809">
@@ -11746,7 +11746,7 @@
         <v>Dorthey Healyey, Morris'i tanıyordu.</v>
       </c>
       <c r="D809" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="810">
@@ -11760,7 +11760,7 @@
         <v>O pozisyona başvurmak yanlıştır.</v>
       </c>
       <c r="D810" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="811">
@@ -11774,7 +11774,7 @@
         <v>Lobiciler ve büyük bağışçılar, Senatörlere daha kolay erişim sağlıyor.</v>
       </c>
       <c r="D811" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="812">
@@ -11788,7 +11788,7 @@
         <v>Aslında 1992'de katılabilecek daha fazla ülke vardı,</v>
       </c>
       <c r="D812" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="813">
@@ -11802,7 +11802,7 @@
         <v>Birisi muhtemelen Kenneth Starr'a bu haftaki This Week programının bir kaydını sızdırdı.</v>
       </c>
       <c r="D813" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="814">
@@ -11816,7 +11816,7 @@
         <v>Reebok, ona kışkırtıcı bir isim vermeyi kasıtlı olarak seçti.</v>
       </c>
       <c r="D814" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="815">
@@ -11844,7 +11844,7 @@
         <v>Elektrik şebekeleri, bankalar, hava trafiği bilgisayarları, tıbbi ekipmanlar ve benzeri sistemlerin felaket düzeyinde kapanmaları artık yıllar boyunca önlenecek.</v>
       </c>
       <c r="D816" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="817">
@@ -11858,7 +11858,7 @@
         <v>Lang'ın doğruluğuna inandığı hipotezler büyük ölçüde yanlıştır.</v>
       </c>
       <c r="D817" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="818">
@@ -11872,7 +11872,7 @@
         <v>Bugün, bir casus, bir mektup yazarı tarafından mülakata alındığında, ölen adamın bilgisine göre, ABD yetkililerinin Diem'in suikastini onaylamış olabileceğini iddia etti.</v>
       </c>
       <c r="D818" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="819">
@@ -11886,7 +11886,7 @@
         <v>Cumhuriyetçiler, başkanın kendi partilerinden olduğu için onu eleştirmekten kaçınıyorlar.</v>
       </c>
       <c r="D819" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="820">
@@ -11900,7 +11900,7 @@
         <v>Yüzünde acı her halinden belliydi ve perişan görünüyordu.</v>
       </c>
       <c r="D820" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="821">
@@ -11928,7 +11928,7 @@
         <v>Doğru yerde olup olmadıklarını anlamak zordu.</v>
       </c>
       <c r="D822" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="823">
@@ -11942,7 +11942,7 @@
         <v>Deregülasyonun dostlarına geçmişte birçok hediye verilmiştir.</v>
       </c>
       <c r="D823" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="824">
@@ -11956,7 +11956,7 @@
         <v>Amman pahalı bir başarısızlıktı.</v>
       </c>
       <c r="D824" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="825">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -11984,7 +11984,7 @@
         <v>Üniversite öğrencileri, atölyelerdeki kötü çalışma koşullarına pek umursamıyor.</v>
       </c>
       <c r="D826" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="827">
@@ -11998,7 +11998,7 @@
         <v>Kongrenin aşırı harcama yapması mümkün.</v>
       </c>
       <c r="D827" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="828">
@@ -12012,7 +12012,7 @@
         <v>Jess Gupta muhtemelen gay.</v>
       </c>
       <c r="D828" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="829">
@@ -12026,7 +12026,7 @@
         <v>Henry, bir kıza sevdiği şeyleri vererek onu mutluluktan çığlık attırmayı severdi.</v>
       </c>
       <c r="D829" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="830">
@@ -12040,7 +12040,7 @@
         <v>Mormonlar çok eşlilik uyguladı.</v>
       </c>
       <c r="D830" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="831">
@@ -12054,7 +12054,7 @@
         <v>Yatırımcılar, olumsuz bilgiler nedeniyle paralarını Microsoft'tan çekmelidir.</v>
       </c>
       <c r="D831" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="832">
@@ -12068,7 +12068,7 @@
         <v>Onların, daha fazla zamanını çevrimiçi geçirmesi gerektiğini düşündüler.</v>
       </c>
       <c r="D832" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="833">
@@ -12082,7 +12082,7 @@
         <v>Ciddi sonuçları olan bir araba kazası geçirmiş olmak, Joe'nun Kongre'ye seçilmemesinin bir nedeni olabilir.</v>
       </c>
       <c r="D833" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="834">
@@ -12096,7 +12096,7 @@
         <v>Kişi kararlarını düşünmüyor.</v>
       </c>
       <c r="D834" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="835">
@@ -12110,7 +12110,7 @@
         <v>Yazar, Venedik Taciri'ni izlemiştir.</v>
       </c>
       <c r="D835" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="836">
@@ -12124,7 +12124,7 @@
         <v>Ürün, Haziran, Temmuz ve Ağustos yaz aylarında mağazalarda yer almalıdır.</v>
       </c>
       <c r="D836" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="837">
@@ -12138,7 +12138,7 @@
         <v>Toplum bir gün çökecek olabilir.</v>
       </c>
       <c r="D837" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="838">
@@ -12152,7 +12152,7 @@
         <v>Yazarın ölümden çok önce ölümcül bir hastalığa yakalanması muhtemel.</v>
       </c>
       <c r="D838" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="839">
@@ -12180,7 +12180,7 @@
         <v>Hepsi köle olabilirlerdi.</v>
       </c>
       <c r="D840" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="841">
@@ -12194,7 +12194,7 @@
         <v>Amerika Birleşik Devletleri ve Rusya birlikte bir savaş içindedir.</v>
       </c>
       <c r="D841" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="842">
@@ -12222,7 +12222,7 @@
         <v>Hisse senedi opsiyonları, tüketici için nadiren meşrudur.</v>
       </c>
       <c r="D843" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="844">
@@ -12236,7 +12236,7 @@
         <v>Program, polisi de kapsayacak şekilde genişleyecek.</v>
       </c>
       <c r="D844" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="845">
@@ -12250,7 +12250,7 @@
         <v>Kendi inançlarından farklı dini fikirleri olan insanları çok sert yargılamaz.</v>
       </c>
       <c r="D845" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="846">
@@ -12264,7 +12264,7 @@
         <v>Zor durumdan çıkmak için seçenekleri var.</v>
       </c>
       <c r="D846" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="847">
@@ -12278,7 +12278,7 @@
         <v>O zaten değişti.</v>
       </c>
       <c r="D847" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="848">
@@ -12292,7 +12292,7 @@
         <v>Büyük olan krediler fark yaratırdı.</v>
       </c>
       <c r="D848" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="849">
@@ -12306,7 +12306,7 @@
         <v>Apple, IBM ve HP gibi birkaç şirkete işletim sistemlerini çalıştıran donanım üretmeleri için izin verdi.</v>
       </c>
       <c r="D849" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="850">
@@ -12320,7 +12320,7 @@
         <v>İnsanlardan ailevi sorunlar yaşamadan ayrılmalarını istemek mümkün olabilir.</v>
       </c>
       <c r="D850" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="851">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -12334,7 +12334,7 @@
         <v>Zeka, tuhaf da dahil olmak üzere birçok açıklama ve olasılığa sahiptir.</v>
       </c>
       <c r="D851" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="852">
@@ -12348,7 +12348,7 @@
         <v>Iraklı komando birimlerinin haber medyasından gelecek raporlardan kaçması zor olabilir.</v>
       </c>
       <c r="D852" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="853">
@@ -12362,7 +12362,7 @@
         <v>Bir ayakkabı şirketinin yüksek rütbeli çalışanları incelenmiyor.</v>
       </c>
       <c r="D853" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="854">
@@ -12390,7 +12390,7 @@
         <v>Hiç kimse Bergman'ın Wigand'ın önemli olmadığına ne zaman karar verdiğinden emin değil.</v>
       </c>
       <c r="D855" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="856">
@@ -12404,7 +12404,7 @@
         <v>Kitap, tartışma ile sona eriyor.</v>
       </c>
       <c r="D856" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="857">
@@ -12418,7 +12418,7 @@
         <v>İnsani hizmetler sunan kar amacı gütmeyen kuruluşların çalışabilmesi için yabancı uygulamaları ve zihniyetleri kullanmaları zorunludur.</v>
       </c>
       <c r="D857" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="858">
@@ -12432,7 +12432,7 @@
         <v>Saklanan sık uçuş mil'leri nakit değeri için kullanılabilir.</v>
       </c>
       <c r="D858" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="859">
@@ -12446,7 +12446,7 @@
         <v>Neredeyse kesinlikle takas edilecek.</v>
       </c>
       <c r="D859" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="860">
@@ -12474,7 +12474,7 @@
         <v>Microsoft, şüpheli davranışlarda bulundu ve araştırılıyor.</v>
       </c>
       <c r="D861" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="862">
@@ -12488,7 +12488,7 @@
         <v>Bill Bradley ve Al Gore, Arizona Demokratları dışında Net oylama dolandırıcılığından etkilenen tek diğer kişilerdir.</v>
       </c>
       <c r="D862" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="863">
@@ -12502,7 +12502,7 @@
         <v>Hisse senedi opsiyonları iyi bir fikirdir.</v>
       </c>
       <c r="D863" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="864">
@@ -12530,7 +12530,7 @@
         <v>A, taş döşeli bir avlusu olan bir kırsal pub gibi görünüyor.</v>
       </c>
       <c r="D865" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="866">
@@ -12544,7 +12544,7 @@
         <v>Ulusal Bilimler Akademisi, PM için araştırma önceliklerini rapor etti.</v>
       </c>
       <c r="D866" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="867">
@@ -12558,7 +12558,7 @@
         <v>Tur rehberlerinin Portekiz hükümetinin resmi konutuna gizlice girmesi alışılmadık bir durum değildir.</v>
       </c>
       <c r="D867" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="868">
@@ -12586,7 +12586,7 @@
         <v>2000 yılına ait dönüşüm çabaları üzerindeki sıkı zaman kısıtlamalarının, hassas verilerin gizliliği üzerinde kesinlikle hiçbir etkisi olmamalıdır.</v>
       </c>
       <c r="D869" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="870">
@@ -12600,7 +12600,7 @@
         <v>Sadece başkandan özel olarak bahsetti.</v>
       </c>
       <c r="D870" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="871">
@@ -12614,7 +12614,7 @@
         <v>Sen gerçek Franklin'sin, ne kadar giyinmiş olursam olayım.</v>
       </c>
       <c r="D871" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="872">
@@ -12628,7 +12628,7 @@
         <v>Ağaçlar harika görünüyordu.</v>
       </c>
       <c r="D872" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="873">
@@ -12642,7 +12642,7 @@
         <v>Cumhuriyetçiler, Gingrich'i etrafta tutmaya ilgi duyardı.</v>
       </c>
       <c r="D873" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="874">
@@ -12656,7 +12656,7 @@
         <v>Birinin nerede olduğunu bilmesi lazım.</v>
       </c>
       <c r="D874" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="875">
@@ -12670,7 +12670,7 @@
         <v>Sanırım kocama, senin kocanın TI'da çalışıp çalışmadığını öğrenmek için bir mektup göndermişler.</v>
       </c>
       <c r="D875" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="876">
@@ -12684,7 +12684,7 @@
         <v>Bu kaç porsiyon yapar?</v>
       </c>
       <c r="D876" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="877">
@@ -12698,7 +12698,7 @@
         <v>Moda anlayışları yok.</v>
       </c>
       <c r="D877" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="878">
@@ -12726,7 +12726,7 @@
         <v>NASA'nın destekçileri her zaman bunun bir finansman meselesi olduğunu savunmuşlardır.</v>
       </c>
       <c r="D879" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="880">
@@ -12740,7 +12740,7 @@
         <v>Drew, at için bir teklifi kabul etti.</v>
       </c>
       <c r="D880" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="881">
@@ -12754,7 +12754,7 @@
         <v>Yapmalısın.</v>
       </c>
       <c r="D881" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="882">
@@ -12768,7 +12768,7 @@
         <v>çok iyi olabilirler</v>
       </c>
       <c r="D882" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="883">
@@ -12796,7 +12796,7 @@
         <v>Davanın Scheck'e 100.000 ile 300.000 dolar arasında mal olacağı tahmin ediliyor, bu da onun kolayca karşılayabileceği bir miktar.</v>
       </c>
       <c r="D884" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="885">
@@ -12810,7 +12810,7 @@
         <v>San'doro, Jon'u ayakta durabilmesi için kaldırdı.</v>
       </c>
       <c r="D885" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="886">
@@ -12824,7 +12824,7 @@
         <v>Birinin sirk palyaçosu olmasının fotoğrafçılığını etkileyip etkilemediğini merak ediyor.</v>
       </c>
       <c r="D886" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="887">
@@ -12838,7 +12838,7 @@
         <v>Karar, bu tahminlerin değişip değişmeyeceğini belirleyecektir.</v>
       </c>
       <c r="D887" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="888">
@@ -12852,7 +12852,7 @@
         <v>Egemen elit, ulusal ekonomiyi belirler.</v>
       </c>
       <c r="D888" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="889">
@@ -12866,7 +12866,7 @@
         <v>Öldüğü gün yeni bir vasiyetname yapması çok şüpheliydi.</v>
       </c>
       <c r="D889" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="890">
@@ -12894,7 +12894,7 @@
         <v>Bir kişi iki teklif arasında hiçbir tercihe sahip olmayabilir.</v>
       </c>
       <c r="D891" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="892">
@@ -12908,7 +12908,7 @@
         <v>Yeni emisyon kuralı Mayıs 1996'da yayımlandı.</v>
       </c>
       <c r="D892" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="893">
@@ -12922,7 +12922,7 @@
         <v>Demokrasiyle sonuçlanmayabilir.</v>
       </c>
       <c r="D893" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="894">
@@ -12950,7 +12950,7 @@
         <v>Savaşta ölmüş olmalısın.</v>
       </c>
       <c r="D895" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="896">
@@ -12964,7 +12964,7 @@
         <v>Yazar, fikrin hayata geçmediğinden mutlu.</v>
       </c>
       <c r="D896" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="897">
@@ -12978,7 +12978,7 @@
         <v>Daha fazla müşteriye yardımcı olmak için gelişmiş alım sistemleri kurulmalıdır.</v>
       </c>
       <c r="D897" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="898">
@@ -12992,7 +12992,7 @@
         <v>Federal maliye politikası, ulusal tasarruf üzerinde birçok şekilde etkili olabilir.</v>
       </c>
       <c r="D898" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="899">
@@ -13006,7 +13006,7 @@
         <v>Muzlu krema turtası harikaydı ve evde de götürülebilir.</v>
       </c>
       <c r="D899" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="900">
@@ -13020,7 +13020,7 @@
         <v>Albert'in üst kattaki zeminde yürüdüğü duyulabiliyordu.</v>
       </c>
       <c r="D900" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="901">
@@ -13034,7 +13034,7 @@
         <v>Mum ışığı adamı daha da güçlü göstermişti.</v>
       </c>
       <c r="D901" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="902">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -13048,7 +13048,7 @@
         <v>Anlaşma NAFTA düzenlemeleri içindedir.</v>
       </c>
       <c r="D902" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="903">
@@ -13062,7 +13062,7 @@
         <v>E-posta pazarlama kampanyası yürütmenin en iyi yolu tamamen doğaçlama yapmaktır. Müşteri listesi oluşturun. İnsanları rahatsız etmek, bir takipçi kitlesi edinmenin harika bir yoludur. E-posta pazarlama, 1980'lerde ortaya çıkmıştır.</v>
       </c>
       <c r="D903" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="904">
@@ -13076,7 +13076,7 @@
         <v>New York'tan üye yok.</v>
       </c>
       <c r="D904" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="905">
@@ -13118,7 +13118,7 @@
         <v>Dikkatin dağılması durumu görsel duyular aracılığıyla algılanabilir.</v>
       </c>
       <c r="D907" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="908">
@@ -13132,7 +13132,7 @@
         <v>Rye St Antony Okulu 9 yaşındaki erkek çocuklara izin vermemektedir.</v>
       </c>
       <c r="D908" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="909">
@@ -13146,7 +13146,7 @@
         <v>Vali, ulus inşası için iki kat daha fazla önerdi.</v>
       </c>
       <c r="D909" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="910">
@@ -13160,7 +13160,7 @@
         <v>En az on kişiden daha az kişi öldürüldü.</v>
       </c>
       <c r="D910" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="911">
@@ -13174,7 +13174,7 @@
         <v>Sonbahar rengi yağışa bağlı değildir.</v>
       </c>
       <c r="D911" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="912">
@@ -13188,7 +13188,7 @@
         <v>Jusuf Kalla Filipinler Cumhurbaşkanı değildir.</v>
       </c>
       <c r="D912" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="913">
@@ -13202,7 +13202,7 @@
         <v>Paylaşılan alanlar kentsel tasarımı dikkate alır.</v>
       </c>
       <c r="D913" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="914">
@@ -13216,7 +13216,7 @@
         <v>Madison'dan oraya gitmek 5 saatten az sürer.</v>
       </c>
       <c r="D914" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="915">
@@ -13230,7 +13230,7 @@
         <v>Hell Blade, Time's End'den daha yüksek bir sıralama elde etti.</v>
       </c>
       <c r="D915" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="916">
@@ -13244,7 +13244,7 @@
         <v>Doktor, tüm bunlar olurken sadece yürüyüşe çıkıyordu.</v>
       </c>
       <c r="D916" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="917">
@@ -13258,7 +13258,7 @@
         <v>Chuck Wright, Quiet Riot'ın birçok arka plan vokalistinden biriydi.</v>
       </c>
       <c r="D917" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="918">
@@ -13272,7 +13272,7 @@
         <v>Merkezi salon, basketbol maçları için 10.014'ten fazla kişiyi ağırlayamaz.</v>
       </c>
       <c r="D918" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="919">
@@ -13286,7 +13286,7 @@
         <v>Birkaç anayasa avukatı incelenecek.</v>
       </c>
       <c r="D919" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="920">
@@ -13300,7 +13300,7 @@
         <v>zayıf karton sağlam olandan iyidir</v>
       </c>
       <c r="D920" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="921">
@@ -13314,7 +13314,7 @@
         <v>Bazı tıbbi değerler büyüktür.</v>
       </c>
       <c r="D921" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="922">
@@ -13328,7 +13328,7 @@
         <v>Eric, Neil'in resmi kıyafetlerden ziyade iş kıyafetleriyle daha iyi göründüğünü düşündü.</v>
       </c>
       <c r="D922" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="923">
@@ -13342,7 +13342,7 @@
         <v>Amerika'da başkan altında işler kaybediliyor.</v>
       </c>
       <c r="D923" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="924">
@@ -13370,7 +13370,7 @@
         <v>"Bir yeminli beyanın sağlandığı yer" çok spesifik bir dildir.</v>
       </c>
       <c r="D925" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="926">
@@ -13398,7 +13398,7 @@
         <v>Adamlar geçtikleri bir binanın içinden ateş açıldı.</v>
       </c>
       <c r="D927" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="928">
@@ -13412,7 +13412,7 @@
         <v>Adam olay yerinde ölmedi.</v>
       </c>
       <c r="D928" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="929">
@@ -13440,7 +13440,7 @@
         <v>Başkan, Avrupa ile güçlü ilişkiler kurmanın önemine inanıyor.</v>
       </c>
       <c r="D930" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="931">
@@ -13454,7 +13454,7 @@
         <v>All for Love, dört kişiden daha azı tarafından yazılmıştır.</v>
       </c>
       <c r="D931" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="932">
@@ -13468,7 +13468,7 @@
         <v>Madison'dan oraya gitmek 6 saatten az sürer.</v>
       </c>
       <c r="D932" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="933">
@@ -13482,7 +13482,7 @@
         <v>Köprü grameri, ada gramerinden daha küçük değildir.</v>
       </c>
       <c r="D933" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="934">
@@ -13496,7 +13496,7 @@
         <v>Bu program artık "Jack Horkheimer: Star Hustler" olarak adlandırılmıyor.</v>
       </c>
       <c r="D934" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="935">
@@ -13510,7 +13510,7 @@
         <v>Sakız, baloncuk patlatmak için daha iyidir.</v>
       </c>
       <c r="D935" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="936">
@@ -13524,7 +13524,7 @@
         <v>Bu konuşmacı birçok Kraliyet Onayı'na katılmıştır.</v>
       </c>
       <c r="D936" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="937">
@@ -13538,7 +13538,7 @@
         <v>Kanada hükümeti bir yıldır gizli müzakerelerle meşguldür.</v>
       </c>
       <c r="D937" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="938">
@@ -13552,7 +13552,7 @@
         <v>Gore, vali olarak hitap edilmektedir.</v>
       </c>
       <c r="D938" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="939">
@@ -13566,7 +13566,7 @@
         <v>Streetcap1, Çin'in Chang'e 3 ay aracından fotoğraflar paylaştığında aydaydı.</v>
       </c>
       <c r="D939" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="940">
@@ -13594,7 +13594,7 @@
         <v>Trendler geri dönüyor.</v>
       </c>
       <c r="D941" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="942">
@@ -13622,7 +13622,7 @@
         <v>Zdeno Chara en uzun NHL oyuncusu iken, Mike Cvik daha uzun oyunculardan biri değildir.</v>
       </c>
       <c r="D943" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="944">
@@ -13636,7 +13636,7 @@
         <v>Holding Back the River, grubun ilk albümünden daha yüksek bir sıralamaya ulaştı.</v>
       </c>
       <c r="D944" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="945">
@@ -13650,7 +13650,7 @@
         <v>Gordon bu sezon başka bir oyunda birden fazla kez vurdu.</v>
       </c>
       <c r="D945" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="946">
@@ -13664,7 +13664,7 @@
         <v>Beat TV, bir seferde iki saatten fazla yayın yaptı.</v>
       </c>
       <c r="D946" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="947">
@@ -13678,7 +13678,7 @@
         <v>Big 12 Konferansı'nda 10'dan fazla okul bulunmaktadır.</v>
       </c>
       <c r="D947" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="948">
@@ -13692,7 +13692,7 @@
         <v>Glasgow'un Kelvingrove Müzesi Hindistan'daydı.</v>
       </c>
       <c r="D948" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="949">
@@ -13706,7 +13706,7 @@
         <v>Annet Artani tüm şarkılarını yazmadı.</v>
       </c>
       <c r="D949" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="950">
@@ -13720,7 +13720,7 @@
         <v>Amy ve Anna, kafede tesadüfen karşılaştıktan sonra tekrar bir araya geldiler.</v>
       </c>
       <c r="D950" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="951">
@@ -13734,7 +13734,7 @@
         <v>Bob Adams Havaalanı, Yampa Valley Bölgesel Havaalanı'nın yirmi beş mil doğusundadır.</v>
       </c>
       <c r="D951" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="952">
@@ -13748,7 +13748,7 @@
         <v>Herkes Medicare'ı hak etmiyor.</v>
       </c>
       <c r="D952" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="953">
@@ -13762,7 +13762,7 @@
         <v>Neil Gordon şık giyinen biri değil.</v>
       </c>
       <c r="D953" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="954">
@@ -13776,7 +13776,7 @@
         <v>Açıklama yaklaşık 28 kelimeden daha az içerir.</v>
       </c>
       <c r="D954" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="955">
@@ -13790,7 +13790,7 @@
         <v>Herkes, bir sonraki kişinin konuşmasından itibaren 5 dakika içinde süreler boyunca konuştu.</v>
       </c>
       <c r="D955" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="956">
@@ -13804,7 +13804,7 @@
         <v>Nancy Hart Douglas, General Stonewall Jackson'ın altında bir keşifçi değildi.</v>
       </c>
       <c r="D956" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="957">
@@ -13818,7 +13818,7 @@
         <v>Tayland ve Kamboçya, bir tapınak üzerindeki mülkiyet konusunda anlaşmaya varamıyor.</v>
       </c>
       <c r="D957" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="958">
@@ -13832,7 +13832,7 @@
         <v>Pamela'nın cinayetinden üç haftadan fazla bir süre sonra, Lois Riess polis gözetimindeydi.</v>
       </c>
       <c r="D958" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="959">

--- a/Annotations/annotations_TR.xlsx
+++ b/Annotations/annotations_TR.xlsx
@@ -13860,7 +13860,7 @@
         <v>Jensen Ackles, Smallville'deki Jason Teague rolüyle televizyon dünyasında tanınmamaktadır.</v>
       </c>
       <c r="D960" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="961">
@@ -13888,7 +13888,7 @@
         <v>Coen kardeşler bir gerilim filmi yönetti.</v>
       </c>
       <c r="D962" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="963">
@@ -13902,7 +13902,7 @@
         <v>Muhammed bir peygamberdi.</v>
       </c>
       <c r="D963" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="964">
@@ -13916,7 +13916,7 @@
         <v>Venus Williams tenis teklerde oynuyor.</v>
       </c>
       <c r="D964" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="965">
@@ -13930,7 +13930,7 @@
         <v>Brittany Murphy bir filmde rol aldı.</v>
       </c>
       <c r="D965" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="966">
@@ -13944,7 +13944,7 @@
         <v>Bermuda 1609'da kolonileştirildi.</v>
       </c>
       <c r="D966" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="967">
@@ -13958,7 +13958,7 @@
         <v>Harry Styles ve grup arkadaşları folk albümü Midnight Memories'i çıkardılar.</v>
       </c>
       <c r="D967" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="968">
@@ -13972,7 +13972,7 @@
         <v>Fantastik Canavarlar ve Nerede Bulunurlar, bir doğa kitabıdır.</v>
       </c>
       <c r="D968" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="969">
@@ -13986,7 +13986,7 @@
         <v>Mirka Federer, profesyonel olarak tenis oynamış ve artık oynamayan bir tenis oyuncusudur.</v>
       </c>
       <c r="D969" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="970">
@@ -14000,7 +14000,7 @@
         <v>Big Show'un doğum adı Paul Donald Wight II'dir, ancak profesyonel güreş için Big Show adını kullanmaktadır.</v>
       </c>
       <c r="D970" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="971">
@@ -14014,7 +14014,7 @@
         <v>Leslie Uggams, Tim Miller tarafından yönetilen bir filmde yer aldı.</v>
       </c>
       <c r="D971" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="972">
@@ -14028,7 +14028,7 @@
         <v>Venus Williams tenis teklerde oynuyor.</v>
       </c>
       <c r="D972" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="973">
@@ -14042,7 +14042,7 @@
         <v>Drew Barrymore bir filmde rol aldı.</v>
       </c>
       <c r="D973" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="974">
@@ -14056,7 +14056,7 @@
         <v>Toy Story, daha önce yayımlanmış bir materyale dayanmaması nedeniyle En İyi Orijinal Senaryo dalında aday gösterilebildi.</v>
       </c>
       <c r="D974" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="975">
@@ -14070,7 +14070,7 @@
         <v>Malala Yousafzai, kadınların eğitim hakkı için bir savunucudur.</v>
       </c>
       <c r="D975" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="976">
@@ -14084,7 +14084,7 @@
         <v>Pi bir sayıdır.</v>
       </c>
       <c r="D976" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="977">
@@ -14098,7 +14098,7 @@
         <v>Azerbaycan'da insanların yüksek bir yüzdesi okuryazardır.</v>
       </c>
       <c r="D977" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="978">
@@ -14112,7 +14112,7 @@
         <v>İtalya'nın daha uzun bir resmi unvanı vardır.</v>
       </c>
       <c r="D978" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="979">
@@ -14126,7 +14126,7 @@
         <v>Matt Groening, The Simpsons için Primetime Emmy ödülleri kazandı.</v>
       </c>
       <c r="D979" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="980">
@@ -14140,7 +14140,7 @@
         <v>Muhammed din açısından önemlidir.</v>
       </c>
       <c r="D980" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="981">
@@ -14154,7 +14154,7 @@
         <v>John McEnroe bir tenis oyuncusuydu.</v>
       </c>
       <c r="D981" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="982">
@@ -14168,7 +14168,7 @@
         <v>Black Mirror bir yarış atıdır.</v>
       </c>
       <c r="D982" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="983">
@@ -14196,7 +14196,7 @@
         <v>John McCain, 1989 yılında Keating Five'in bir parçası olarak yolsuzlukla suçlandı.</v>
       </c>
       <c r="D984" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="985">
@@ -14210,7 +14210,7 @@
         <v>Valerian ve Bin Gezegenin Şehri bir aktörü barındırıyor.</v>
       </c>
       <c r="D985" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="986">
@@ -14224,7 +14224,7 @@
         <v>Venus Williams tenis teklerde oynuyor.</v>
       </c>
       <c r="D986" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="987">
@@ -14238,7 +14238,7 @@
         <v>Valois'lu Margaret'in kız kardeşleri vardı.</v>
       </c>
       <c r="D987" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="988">
@@ -14252,7 +14252,7 @@
         <v>Matt Groening, The Simpsons için on İtalyan biftek sandviçi kazandı.</v>
       </c>
       <c r="D988" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="989">
@@ -14266,7 +14266,7 @@
         <v>Nashville Şarkı Yazarları Derneği Uluslararası, müzik endüstrisi eğitimi sağlar.</v>
       </c>
       <c r="D989" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="990">
@@ -14280,7 +14280,7 @@
         <v>Batman Begins, Kuzey Amerika bağımsızlığından önceydi.</v>
       </c>
       <c r="D990" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="991">
@@ -14294,7 +14294,7 @@
         <v>Toy Story, daha önce yayımlanmış bir materyale dayanmadığı için En İyi Orijinal Senaryo dalında aday gösterilebildi.</v>
       </c>
       <c r="D991" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="992">
@@ -14308,7 +14308,7 @@
         <v>Billy Joel sahne sanatları endüstrisindedir.</v>
       </c>
       <c r="D992" t="str">
-        <v>NonSense</v>
+        <v>Neutral</v>
       </c>
     </row>
     <row r="993">
@@ -14322,7 +14322,7 @@
         <v>Ateşi Yakalamak ciltli olarak yayımlandı.</v>
       </c>
       <c r="D993" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="994">
@@ -14336,7 +14336,7 @@
         <v>Brittany Murphy oyunculuk yaptı.</v>
       </c>
       <c r="D994" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="995">
@@ -14350,7 +14350,7 @@
         <v>Foo Fighters müzik yapıyor.</v>
       </c>
       <c r="D995" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="996">
@@ -14364,7 +14364,7 @@
         <v>Boeing 777, dünyanın en uzun menzilli yolcu uçağıdır.</v>
       </c>
       <c r="D996" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="997">
@@ -14378,7 +14378,7 @@
         <v>Muhammed din açısından önemlidir.</v>
       </c>
       <c r="D997" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="998">
@@ -14392,7 +14392,7 @@
         <v>Transformers: Yenilenlerin İntikamı bir filmdir.</v>
       </c>
       <c r="D998" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="999">
@@ -14406,7 +14406,7 @@
         <v>Big Show'un sahne adı Paul Donald Wight II'dir.</v>
       </c>
       <c r="D999" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
     <row r="1000">
@@ -14420,7 +14420,7 @@
         <v>Muhammed din açısından önemlidir.</v>
       </c>
       <c r="D1000" t="str">
-        <v>NonSense</v>
+        <v>Entailment</v>
       </c>
     </row>
     <row r="1001">
@@ -14434,7 +14434,7 @@
         <v>Joaquin Phoenix filmler yönetmiştir.</v>
       </c>
       <c r="D1001" t="str">
-        <v>NonSense</v>
+        <v>Contradiction</v>
       </c>
     </row>
   </sheetData>
